--- a/model/RunControl.xlsx
+++ b/model/RunControl.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E291ED6E-BF5B-426A-B28D-06225F993728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA5493F-2C70-4CA1-A0EE-22F3DEEB0E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1500" windowWidth="29040" windowHeight="15840" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1500" windowWidth="29040" windowHeight="15840" tabRatio="524" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params_sim" sheetId="22" r:id="rId1"/>
@@ -1617,11 +1617,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D014B46A-D012-4D18-AEAB-1D829080B2CE}">
   <dimension ref="A2:AS76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6508,11 +6508,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F07677-8B44-417E-B263-203C3A91094A}">
   <dimension ref="A3:R56"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6640,7 +6640,7 @@
         <v>161</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
         <v>68</v>
@@ -6693,7 +6693,7 @@
         <v>245</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>68</v>
@@ -6726,7 +6726,7 @@
         <v>1</v>
       </c>
       <c r="O7" s="41">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -8107,7 +8107,7 @@
   <dimension ref="A3:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/model/RunControl.xlsx
+++ b/model/RunControl.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE0103B-320D-4234-8D03-CA9FDAAD2E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4774AF4-8D4C-415A-BBD2-BD90C5DD26FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1500" windowWidth="29040" windowHeight="15840" tabRatio="736" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="736" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params_sim" sheetId="22" r:id="rId1"/>
@@ -287,7 +287,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="328">
   <si>
     <t>nsim</t>
   </si>
@@ -397,9 +397,6 @@
     <t>closed</t>
   </si>
   <si>
-    <t>cd</t>
-  </si>
-  <si>
     <t>notes</t>
   </si>
   <si>
@@ -580,9 +577,6 @@
     <t>MA0</t>
   </si>
   <si>
-    <t>AA0</t>
-  </si>
-  <si>
     <t>AL_defrRet_pctALservRet</t>
   </si>
   <si>
@@ -637,12 +631,6 @@
     <t>Misc members: lesser ben cuts</t>
   </si>
   <si>
-    <t xml:space="preserve">PERF A policy for misc and inds </t>
-  </si>
-  <si>
-    <t>PERF A policy for sfty, poff, chp</t>
-  </si>
-  <si>
     <t>safety members: baseline</t>
   </si>
   <si>
@@ -652,9 +640,6 @@
     <t>safety members: extreme ben cuts</t>
   </si>
   <si>
-    <t>Contingent COLA based on lower discount rate</t>
-  </si>
-  <si>
     <t>use_lowerDR</t>
   </si>
   <si>
@@ -721,90 +706,12 @@
     <t>Misc 2 tiers, 1%bfactor(new), 1.5%cola</t>
   </si>
   <si>
-    <t>misc2t_baseline</t>
-  </si>
-  <si>
-    <t>misc2t_benCut1_lowERC</t>
-  </si>
-  <si>
-    <t>misc2t_benCut1_highERC</t>
-  </si>
-  <si>
-    <t>misc2t_colaCut1_lowERC</t>
-  </si>
-  <si>
-    <t>misc2t_colaCut1_highERC</t>
-  </si>
-  <si>
-    <t>misc2t_benCut1_colaCut1_lowERC</t>
-  </si>
-  <si>
-    <t>misc2t_benCut1_colaCut1_highERC</t>
-  </si>
-  <si>
-    <t>misc2t_benCut2_lowERC</t>
-  </si>
-  <si>
-    <t>misc2t_benCut2_highERC</t>
-  </si>
-  <si>
-    <t>misc2t_colaCut2_lowERC</t>
-  </si>
-  <si>
-    <t>misc2t_colaCut2_highERC</t>
-  </si>
-  <si>
-    <t>misc2t_benCut2_colaCut2_lowERC</t>
-  </si>
-  <si>
-    <t>misc2t_benCut2_colaCut2_highERC</t>
-  </si>
-  <si>
     <t>ramp</t>
   </si>
   <si>
     <t>method2</t>
   </si>
   <si>
-    <t>sfty2t_baseline</t>
-  </si>
-  <si>
-    <t>sfty2t_benCut1_lowERC</t>
-  </si>
-  <si>
-    <t>sfty2t_benCut1_highERC</t>
-  </si>
-  <si>
-    <t>sfty2t_colaCut1_lowERC</t>
-  </si>
-  <si>
-    <t>sfty2t_colaCut1_highERC</t>
-  </si>
-  <si>
-    <t>sfty2t_benCut1_colaCut1_lowERC</t>
-  </si>
-  <si>
-    <t>sfty2t_benCut1_colaCut1_highERC</t>
-  </si>
-  <si>
-    <t>sfty2t_benCut2_lowERC</t>
-  </si>
-  <si>
-    <t>sfty2t_benCut2_highERC</t>
-  </si>
-  <si>
-    <t>sfty2t_colaCut2_lowERC</t>
-  </si>
-  <si>
-    <t>sfty2t_colaCut2_highERC</t>
-  </si>
-  <si>
-    <t>sfty2t_benCut2_colaCut2_lowERC</t>
-  </si>
-  <si>
-    <t>sfty2t_benCut2_colaCut2_highERC</t>
-  </si>
-  <si>
     <t>sfty2t_bf100_cola2</t>
   </si>
   <si>
@@ -898,31 +805,7 @@
     <t>sfty2t, 3%bfactor, 0.5%cola(cola suspension)</t>
   </si>
   <si>
-    <t>misc2t_colaCut1lowerDR_lowERC</t>
-  </si>
-  <si>
-    <t>misc2t_colaCut1lowerDR_highERC</t>
-  </si>
-  <si>
-    <t>sfty2t_colaCut1lowerDR_lowERC</t>
-  </si>
-  <si>
-    <t>sfty2t_colaCut1lowerDR_highERC</t>
-  </si>
-  <si>
     <t>newBasisPolicyChg</t>
-  </si>
-  <si>
-    <t>misc2t_colaCut2lowerDR_lowERC</t>
-  </si>
-  <si>
-    <t>misc2t_colaCut2lowerDR_highERC</t>
-  </si>
-  <si>
-    <t>sfty2t_colaCut2lowerDR_lowERC</t>
-  </si>
-  <si>
-    <t>sfty2t_colaCut2lowerDR_highERC</t>
   </si>
   <si>
     <t>Notes on combinations of parameters</t>
@@ -2130,13 +2013,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D014B46A-D012-4D18-AEAB-1D829080B2CE}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:AS132"/>
+  <dimension ref="A2:AS76"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="M26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M53" sqref="M53"/>
+      <selection pane="bottomRight" activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2192,37 +2075,37 @@
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
       <c r="E3" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H3" s="31"/>
       <c r="I3" s="31"/>
       <c r="J3" s="31"/>
       <c r="K3" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L3" s="25"/>
       <c r="M3" s="25"/>
       <c r="N3" s="25"/>
       <c r="O3" s="25"/>
       <c r="P3" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q3" s="16"/>
       <c r="R3" s="16"/>
       <c r="S3" s="16"/>
       <c r="T3" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U3" s="17"/>
       <c r="V3" s="17"/>
       <c r="W3" s="17"/>
       <c r="X3" s="17"/>
       <c r="Y3" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z3" s="19"/>
       <c r="AA3" s="19"/>
@@ -2231,7 +2114,7 @@
       <c r="AD3" s="19"/>
       <c r="AE3" s="19"/>
       <c r="AF3" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AG3" s="15"/>
       <c r="AH3" s="15"/>
@@ -2240,7 +2123,7 @@
       <c r="AK3" s="15"/>
       <c r="AL3" s="15"/>
       <c r="AM3" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AN3" s="20"/>
       <c r="AO3" s="20"/>
@@ -2251,49 +2134,49 @@
     </row>
     <row r="4" spans="1:45" s="1" customFormat="1">
       <c r="A4" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="J4" s="32" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K4" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L4" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="M4" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="M4" s="26" t="s">
-        <v>89</v>
-      </c>
       <c r="N4" s="26" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="O4" s="26" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="P4" s="10" t="s">
         <v>11</v>
@@ -2311,16 +2194,16 @@
         <v>12</v>
       </c>
       <c r="U4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="V4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="W4" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="X4" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Y4" s="7" t="s">
         <v>21</v>
@@ -2338,16 +2221,16 @@
         <v>8</v>
       </c>
       <c r="AD4" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AE4" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG4" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="AG4" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="AH4" s="8" t="s">
         <v>29</v>
@@ -2362,10 +2245,10 @@
         <v>33</v>
       </c>
       <c r="AL4" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM4" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AN4" s="12" t="s">
         <v>27</v>
@@ -2388,15 +2271,15 @@
     </row>
     <row r="5" spans="1:45">
       <c r="B5" s="33" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:45">
       <c r="A6" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="B6" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -2405,13 +2288,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -2432,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="Q6" t="s">
         <v>35</v>
@@ -2453,13 +2336,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="X6" t="b">
         <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z6" t="s">
         <v>20</v>
@@ -2527,7 +2410,7 @@
     </row>
     <row r="8" spans="1:45">
       <c r="B8" s="33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AC8" s="3"/>
       <c r="AD8" s="5"/>
@@ -2539,10 +2422,10 @@
     </row>
     <row r="9" spans="1:45">
       <c r="A9" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -2551,13 +2434,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
@@ -2578,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="Q9" t="s">
         <v>35</v>
@@ -2599,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="X9" t="b">
         <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z9" t="s">
         <v>20</v>
@@ -2666,10 +2549,10 @@
     </row>
     <row r="10" spans="1:45">
       <c r="A10" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -2678,13 +2561,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -2705,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="Q10" t="s">
         <v>35</v>
@@ -2726,13 +2609,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="X10" t="b">
         <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z10" t="s">
         <v>20</v>
@@ -2793,10 +2676,10 @@
     </row>
     <row r="12" spans="1:45">
       <c r="A12" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -2805,13 +2688,13 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
@@ -2832,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="Q12" t="s">
         <v>35</v>
@@ -2853,13 +2736,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="X12" t="b">
         <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z12" t="s">
         <v>20</v>
@@ -2918,10 +2801,10 @@
     </row>
     <row r="13" spans="1:45">
       <c r="A13" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -2930,13 +2813,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -2957,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="Q13" t="s">
         <v>35</v>
@@ -2978,13 +2861,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="X13" t="b">
         <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z13" t="s">
         <v>20</v>
@@ -3043,10 +2926,10 @@
     </row>
     <row r="15" spans="1:45">
       <c r="A15" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -3055,13 +2938,13 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
@@ -3082,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="Q15" t="s">
         <v>35</v>
@@ -3103,13 +2986,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="X15" t="b">
         <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z15" t="s">
         <v>20</v>
@@ -3168,10 +3051,10 @@
     </row>
     <row r="16" spans="1:45">
       <c r="A16" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -3180,13 +3063,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
@@ -3207,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="Q16" t="s">
         <v>35</v>
@@ -3228,13 +3111,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="X16" t="b">
         <v>0</v>
       </c>
       <c r="Y16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z16" t="s">
         <v>20</v>
@@ -3302,7 +3185,7 @@
     </row>
     <row r="18" spans="1:45">
       <c r="B18" s="33" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -3310,10 +3193,10 @@
     </row>
     <row r="19" spans="1:45">
       <c r="A19" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -3322,13 +3205,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
@@ -3349,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="Q19" t="s">
         <v>35</v>
@@ -3370,13 +3253,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="X19" t="b">
         <v>0</v>
       </c>
       <c r="Y19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z19" t="s">
         <v>20</v>
@@ -3437,10 +3320,10 @@
     </row>
     <row r="20" spans="1:45">
       <c r="A20" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -3449,13 +3332,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
@@ -3476,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="Q20" t="s">
         <v>35</v>
@@ -3497,13 +3380,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="X20" t="b">
         <v>0</v>
       </c>
       <c r="Y20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z20" t="s">
         <v>20</v>
@@ -3564,10 +3447,10 @@
     </row>
     <row r="22" spans="1:45">
       <c r="A22" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -3576,13 +3459,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
@@ -3603,7 +3486,7 @@
         <v>0.01</v>
       </c>
       <c r="P22" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="Q22" t="s">
         <v>35</v>
@@ -3624,13 +3507,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="X22" t="b">
         <v>0</v>
       </c>
       <c r="Y22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z22" t="s">
         <v>20</v>
@@ -3689,10 +3572,10 @@
     </row>
     <row r="23" spans="1:45">
       <c r="A23" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -3701,13 +3584,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
@@ -3728,7 +3611,7 @@
         <v>0.01</v>
       </c>
       <c r="P23" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="Q23" t="s">
         <v>35</v>
@@ -3749,13 +3632,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="X23" t="b">
         <v>0</v>
       </c>
       <c r="Y23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z23" t="s">
         <v>20</v>
@@ -3814,10 +3697,10 @@
     </row>
     <row r="25" spans="1:45">
       <c r="A25" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -3826,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
@@ -3853,7 +3736,7 @@
         <v>0.01</v>
       </c>
       <c r="P25" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="Q25" t="s">
         <v>35</v>
@@ -3874,13 +3757,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="X25" t="b">
         <v>0</v>
       </c>
       <c r="Y25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z25" t="s">
         <v>20</v>
@@ -3939,10 +3822,10 @@
     </row>
     <row r="26" spans="1:45">
       <c r="A26" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="B26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -3951,13 +3834,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
@@ -3978,7 +3861,7 @@
         <v>0.01</v>
       </c>
       <c r="P26" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="Q26" t="s">
         <v>35</v>
@@ -3999,13 +3882,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="X26" t="b">
         <v>0</v>
       </c>
       <c r="Y26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z26" t="s">
         <v>20</v>
@@ -4091,15 +3974,15 @@
     </row>
     <row r="30" spans="1:45">
       <c r="B30" s="33" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:45">
       <c r="A31" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="B31" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
@@ -4108,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -4135,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="Q31" t="s">
         <v>35</v>
@@ -4156,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="X31" t="b">
         <v>0</v>
       </c>
       <c r="Y31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z31" t="s">
         <v>20</v>
@@ -4224,7 +4107,7 @@
     </row>
     <row r="33" spans="1:45">
       <c r="B33" s="33" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AC33" s="3"/>
       <c r="AD33" s="5"/>
@@ -4236,10 +4119,10 @@
     </row>
     <row r="34" spans="1:45">
       <c r="A34" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="B34" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C34" t="b">
         <v>1</v>
@@ -4248,13 +4131,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="H34" t="b">
         <v>1</v>
@@ -4275,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="Q34" t="s">
         <v>35</v>
@@ -4296,13 +4179,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="X34" t="b">
         <v>0</v>
       </c>
       <c r="Y34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z34" t="s">
         <v>20</v>
@@ -4323,7 +4206,7 @@
         <v>123</v>
       </c>
       <c r="AF34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AG34" t="s">
         <v>31</v>
@@ -4363,10 +4246,10 @@
     </row>
     <row r="35" spans="1:45">
       <c r="A35" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="B35" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C35" t="b">
         <v>1</v>
@@ -4375,13 +4258,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="H35" t="b">
         <v>1</v>
@@ -4402,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="Q35" t="s">
         <v>35</v>
@@ -4423,13 +4306,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="X35" t="b">
         <v>0</v>
       </c>
       <c r="Y35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z35" t="s">
         <v>20</v>
@@ -4450,7 +4333,7 @@
         <v>123</v>
       </c>
       <c r="AF35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AG35" t="s">
         <v>31</v>
@@ -4494,10 +4377,10 @@
     </row>
     <row r="37" spans="1:45">
       <c r="A37" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C37" t="b">
         <v>1</v>
@@ -4506,13 +4389,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="H37" t="b">
         <v>1</v>
@@ -4533,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="Q37" t="s">
         <v>35</v>
@@ -4554,13 +4437,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="X37" t="b">
         <v>0</v>
       </c>
       <c r="Y37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z37" t="s">
         <v>20</v>
@@ -4619,10 +4502,10 @@
     </row>
     <row r="38" spans="1:45">
       <c r="A38" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="B38" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C38" t="b">
         <v>1</v>
@@ -4631,13 +4514,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="H38" t="b">
         <v>1</v>
@@ -4658,7 +4541,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="Q38" t="s">
         <v>35</v>
@@ -4679,13 +4562,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="X38" t="b">
         <v>0</v>
       </c>
       <c r="Y38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z38" t="s">
         <v>20</v>
@@ -4744,10 +4627,10 @@
     </row>
     <row r="40" spans="1:45">
       <c r="A40" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="B40" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C40" t="b">
         <v>1</v>
@@ -4756,13 +4639,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="H40" t="b">
         <v>1</v>
@@ -4783,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="Q40" t="s">
         <v>35</v>
@@ -4804,13 +4687,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="X40" t="b">
         <v>0</v>
       </c>
       <c r="Y40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z40" t="s">
         <v>20</v>
@@ -4869,10 +4752,10 @@
     </row>
     <row r="41" spans="1:45">
       <c r="A41" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="B41" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
@@ -4881,13 +4764,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="H41" t="b">
         <v>1</v>
@@ -4908,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="Q41" t="s">
         <v>35</v>
@@ -4929,13 +4812,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="X41" t="b">
         <v>0</v>
       </c>
       <c r="Y41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z41" t="s">
         <v>20</v>
@@ -5003,7 +4886,7 @@
     </row>
     <row r="43" spans="1:45">
       <c r="B43" s="33" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AC43" s="3"/>
       <c r="AD43" s="5"/>
@@ -5015,10 +4898,10 @@
     </row>
     <row r="44" spans="1:45">
       <c r="A44" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="B44" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C44" t="b">
         <v>1</v>
@@ -5027,13 +4910,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="H44" t="b">
         <v>1</v>
@@ -5054,7 +4937,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="Q44" t="s">
         <v>35</v>
@@ -5075,13 +4958,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="X44" t="b">
         <v>0</v>
       </c>
       <c r="Y44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z44" t="s">
         <v>20</v>
@@ -5102,7 +4985,7 @@
         <v>123</v>
       </c>
       <c r="AF44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AG44" t="s">
         <v>31</v>
@@ -5142,10 +5025,10 @@
     </row>
     <row r="45" spans="1:45">
       <c r="A45" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="B45" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C45" t="b">
         <v>1</v>
@@ -5154,13 +5037,13 @@
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="H45" t="b">
         <v>1</v>
@@ -5181,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="Q45" t="s">
         <v>35</v>
@@ -5202,13 +5085,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="X45" t="b">
         <v>0</v>
       </c>
       <c r="Y45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z45" t="s">
         <v>20</v>
@@ -5229,7 +5112,7 @@
         <v>123</v>
       </c>
       <c r="AF45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AG45" t="s">
         <v>31</v>
@@ -5273,10 +5156,10 @@
     </row>
     <row r="47" spans="1:45">
       <c r="A47" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="B47" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C47" t="b">
         <v>1</v>
@@ -5285,13 +5168,13 @@
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -5312,7 +5195,7 @@
         <v>0.01</v>
       </c>
       <c r="P47" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="Q47" t="s">
         <v>35</v>
@@ -5333,13 +5216,13 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="X47" t="b">
         <v>0</v>
       </c>
       <c r="Y47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z47" t="s">
         <v>20</v>
@@ -5398,10 +5281,10 @@
     </row>
     <row r="48" spans="1:45">
       <c r="A48" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="B48" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C48" t="b">
         <v>1</v>
@@ -5410,13 +5293,13 @@
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="H48" t="b">
         <v>1</v>
@@ -5437,7 +5320,7 @@
         <v>0.01</v>
       </c>
       <c r="P48" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="Q48" t="s">
         <v>35</v>
@@ -5458,13 +5341,13 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="X48" t="b">
         <v>0</v>
       </c>
       <c r="Y48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z48" t="s">
         <v>20</v>
@@ -5523,10 +5406,10 @@
     </row>
     <row r="50" spans="1:45">
       <c r="A50" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="B50" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C50" t="b">
         <v>1</v>
@@ -5535,13 +5418,13 @@
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
@@ -5562,7 +5445,7 @@
         <v>0.01</v>
       </c>
       <c r="P50" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="Q50" t="s">
         <v>35</v>
@@ -5583,13 +5466,13 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="X50" t="b">
         <v>0</v>
       </c>
       <c r="Y50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z50" t="s">
         <v>20</v>
@@ -5648,10 +5531,10 @@
     </row>
     <row r="51" spans="1:45">
       <c r="A51" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="B51" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C51" t="b">
         <v>1</v>
@@ -5660,13 +5543,13 @@
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="H51" t="b">
         <v>1</v>
@@ -5687,7 +5570,7 @@
         <v>0.01</v>
       </c>
       <c r="P51" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="Q51" t="s">
         <v>35</v>
@@ -5708,13 +5591,13 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="X51" t="b">
         <v>0</v>
       </c>
       <c r="Y51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z51" t="s">
         <v>20</v>
@@ -5789,4473 +5672,34 @@
     <row r="57" spans="1:45">
       <c r="B57" s="33"/>
     </row>
-    <row r="58" spans="1:45">
-      <c r="A58" t="s">
-        <v>144</v>
-      </c>
-      <c r="B58" t="s">
-        <v>116</v>
-      </c>
-      <c r="C58" t="b">
-        <v>0</v>
-      </c>
-      <c r="D58" t="b">
-        <v>0</v>
-      </c>
-      <c r="E58" t="s">
-        <v>126</v>
-      </c>
-      <c r="F58" t="b">
-        <v>0</v>
-      </c>
-      <c r="G58" t="s">
-        <v>144</v>
-      </c>
-      <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" t="b">
-        <v>0</v>
-      </c>
-      <c r="K58" t="b">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <v>0.02</v>
-      </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-      <c r="P58" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>35</v>
-      </c>
-      <c r="R58">
-        <v>20</v>
-      </c>
-      <c r="S58">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="T58">
-        <v>5</v>
-      </c>
-      <c r="U58">
-        <v>999</v>
-      </c>
-      <c r="V58">
-        <v>0</v>
-      </c>
-      <c r="W58" t="s">
-        <v>158</v>
-      </c>
-      <c r="X58" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y58" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z58" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA58">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AB58">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AC58" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AD58" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AE58" s="24">
-        <v>123</v>
-      </c>
-      <c r="AF58" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG58" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH58" s="23">
-        <v>0.6976</v>
-      </c>
-      <c r="AI58" s="23">
-        <v>0.6976</v>
-      </c>
-      <c r="AL58" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="AM58" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN58" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO58" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP58">
-        <v>0</v>
-      </c>
-      <c r="AQ58" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR58" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS58" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:45">
-      <c r="AC59" s="3"/>
-      <c r="AD59" s="5"/>
-      <c r="AE59" s="24"/>
-      <c r="AH59" s="23"/>
-      <c r="AI59" s="23"/>
-      <c r="AL59" s="29"/>
-      <c r="AS59" s="22"/>
-    </row>
-    <row r="60" spans="1:45">
-      <c r="A60" t="s">
-        <v>145</v>
-      </c>
-      <c r="B60" t="s">
-        <v>103</v>
-      </c>
-      <c r="C60" t="b">
-        <v>0</v>
-      </c>
-      <c r="D60" t="b">
-        <v>0</v>
-      </c>
-      <c r="E60" t="s">
-        <v>128</v>
-      </c>
-      <c r="F60" t="b">
-        <v>0</v>
-      </c>
-      <c r="G60" t="s">
-        <v>144</v>
-      </c>
-      <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="b">
-        <v>1</v>
-      </c>
-      <c r="J60" t="b">
-        <v>1</v>
-      </c>
-      <c r="K60" t="b">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>0.02</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="P60" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>35</v>
-      </c>
-      <c r="R60">
-        <v>20</v>
-      </c>
-      <c r="S60">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="T60">
-        <v>5</v>
-      </c>
-      <c r="U60">
-        <v>999</v>
-      </c>
-      <c r="V60">
-        <v>0</v>
-      </c>
-      <c r="W60" t="s">
-        <v>158</v>
-      </c>
-      <c r="X60" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y60" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z60" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA60">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AB60">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AC60" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AD60" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AE60" s="24">
-        <v>123</v>
-      </c>
-      <c r="AF60" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG60" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH60" s="23"/>
-      <c r="AI60" s="23"/>
-      <c r="AJ60" s="30">
-        <v>81825573157</v>
-      </c>
-      <c r="AK60" s="30">
-        <v>81825573157</v>
-      </c>
-      <c r="AL60" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="AM60" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN60" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO60" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP60">
-        <v>0</v>
-      </c>
-      <c r="AQ60" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR60" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS60" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:45">
-      <c r="A61" t="s">
-        <v>146</v>
-      </c>
-      <c r="B61" t="s">
-        <v>110</v>
-      </c>
-      <c r="C61" t="b">
-        <v>0</v>
-      </c>
-      <c r="D61" t="b">
-        <v>0</v>
-      </c>
-      <c r="E61" t="s">
-        <v>128</v>
-      </c>
-      <c r="F61" t="b">
-        <v>0</v>
-      </c>
-      <c r="G61" t="s">
-        <v>144</v>
-      </c>
-      <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" t="b">
-        <v>1</v>
-      </c>
-      <c r="K61" t="b">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>0.02</v>
-      </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-      <c r="P61" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>35</v>
-      </c>
-      <c r="R61">
-        <v>20</v>
-      </c>
-      <c r="S61">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="T61">
-        <v>5</v>
-      </c>
-      <c r="U61">
-        <v>999</v>
-      </c>
-      <c r="V61">
-        <v>0</v>
-      </c>
-      <c r="W61" t="s">
-        <v>158</v>
-      </c>
-      <c r="X61" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y61" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z61" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA61">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AB61">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AC61" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AD61" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AE61" s="24">
-        <v>123</v>
-      </c>
-      <c r="AF61" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG61" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH61" s="23"/>
-      <c r="AI61" s="23"/>
-      <c r="AJ61" s="30">
-        <v>81825573157</v>
-      </c>
-      <c r="AK61" s="30">
-        <v>81825573157</v>
-      </c>
-      <c r="AL61" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="AM61" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN61" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO61" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP61">
-        <v>0</v>
-      </c>
-      <c r="AQ61" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR61" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS61" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:45">
-      <c r="A63" t="s">
-        <v>147</v>
-      </c>
-      <c r="B63" t="s">
-        <v>102</v>
-      </c>
-      <c r="C63" t="b">
-        <v>0</v>
-      </c>
-      <c r="D63" t="b">
-        <v>0</v>
-      </c>
-      <c r="E63" t="s">
-        <v>129</v>
-      </c>
-      <c r="F63" t="b">
-        <v>0</v>
-      </c>
-      <c r="G63" t="s">
-        <v>144</v>
-      </c>
-      <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="b">
-        <v>1</v>
-      </c>
-      <c r="J63" t="b">
-        <v>1</v>
-      </c>
-      <c r="K63" t="b">
-        <v>1</v>
-      </c>
-      <c r="L63">
-        <v>0.02</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
-      <c r="P63" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>35</v>
-      </c>
-      <c r="R63">
-        <v>20</v>
-      </c>
-      <c r="S63">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="T63">
-        <v>5</v>
-      </c>
-      <c r="U63">
-        <v>999</v>
-      </c>
-      <c r="V63">
-        <v>0</v>
-      </c>
-      <c r="W63" t="s">
-        <v>158</v>
-      </c>
-      <c r="X63" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y63" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z63" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA63">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AB63">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AC63" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AD63" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AE63" s="24">
-        <v>123</v>
-      </c>
-      <c r="AF63" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG63" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH63" s="23">
-        <v>0.6976</v>
-      </c>
-      <c r="AI63" s="23">
-        <v>0.6976</v>
-      </c>
-      <c r="AL63" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="AM63" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN63" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO63" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP63">
-        <v>0</v>
-      </c>
-      <c r="AQ63" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR63" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS63" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:45">
-      <c r="A64" t="s">
-        <v>148</v>
-      </c>
-      <c r="B64" t="s">
-        <v>109</v>
-      </c>
-      <c r="C64" t="b">
-        <v>0</v>
-      </c>
-      <c r="D64" t="b">
-        <v>0</v>
-      </c>
-      <c r="E64" t="s">
-        <v>129</v>
-      </c>
-      <c r="F64" t="b">
-        <v>0</v>
-      </c>
-      <c r="G64" t="s">
-        <v>144</v>
-      </c>
-      <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" t="b">
-        <v>1</v>
-      </c>
-      <c r="K64" t="b">
-        <v>1</v>
-      </c>
-      <c r="L64">
-        <v>0.02</v>
-      </c>
-      <c r="M64">
-        <v>0</v>
-      </c>
-      <c r="P64" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>35</v>
-      </c>
-      <c r="R64">
-        <v>20</v>
-      </c>
-      <c r="S64">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="T64">
-        <v>5</v>
-      </c>
-      <c r="U64">
-        <v>999</v>
-      </c>
-      <c r="V64">
-        <v>0</v>
-      </c>
-      <c r="W64" t="s">
-        <v>158</v>
-      </c>
-      <c r="X64" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y64" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z64" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA64">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AB64">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AC64" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AD64" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AE64" s="24">
-        <v>123</v>
-      </c>
-      <c r="AF64" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG64" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH64" s="23">
-        <v>0.6976</v>
-      </c>
-      <c r="AI64" s="23">
-        <v>0.6976</v>
-      </c>
-      <c r="AL64" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="AM64" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN64" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO64" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP64">
-        <v>0</v>
-      </c>
-      <c r="AQ64" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR64" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS64" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:45">
-      <c r="A66" t="s">
-        <v>149</v>
-      </c>
-      <c r="B66" t="s">
-        <v>106</v>
-      </c>
-      <c r="C66" t="b">
-        <v>0</v>
-      </c>
-      <c r="D66" t="b">
-        <v>0</v>
-      </c>
-      <c r="E66" t="s">
-        <v>131</v>
-      </c>
-      <c r="F66" t="b">
-        <v>0</v>
-      </c>
-      <c r="G66" t="s">
-        <v>144</v>
-      </c>
-      <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="b">
-        <v>1</v>
-      </c>
-      <c r="J66" t="b">
-        <v>1</v>
-      </c>
-      <c r="K66" t="b">
-        <v>1</v>
-      </c>
-      <c r="L66">
-        <v>0.02</v>
-      </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-      <c r="P66" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>35</v>
-      </c>
-      <c r="R66">
-        <v>20</v>
-      </c>
-      <c r="S66">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="T66">
-        <v>5</v>
-      </c>
-      <c r="U66">
-        <v>999</v>
-      </c>
-      <c r="V66">
-        <v>0</v>
-      </c>
-      <c r="W66" t="s">
-        <v>158</v>
-      </c>
-      <c r="X66" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y66" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z66" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA66">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AB66">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AC66" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AD66" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AE66" s="24">
-        <v>123</v>
-      </c>
-      <c r="AF66" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG66" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH66" s="23">
-        <v>0.6976</v>
-      </c>
-      <c r="AI66" s="23">
-        <v>0.6976</v>
-      </c>
-      <c r="AL66" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="AM66" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN66" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO66" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP66">
-        <v>0</v>
-      </c>
-      <c r="AQ66" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR66" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS66" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:45">
-      <c r="A67" t="s">
-        <v>150</v>
-      </c>
-      <c r="B67" t="s">
-        <v>107</v>
-      </c>
-      <c r="C67" t="b">
-        <v>0</v>
-      </c>
-      <c r="D67" t="b">
-        <v>0</v>
-      </c>
-      <c r="E67" t="s">
-        <v>131</v>
-      </c>
-      <c r="F67" t="b">
-        <v>0</v>
-      </c>
-      <c r="G67" t="s">
-        <v>144</v>
-      </c>
-      <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" t="b">
-        <v>1</v>
-      </c>
-      <c r="K67" t="b">
-        <v>1</v>
-      </c>
-      <c r="L67">
-        <v>0.02</v>
-      </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-      <c r="P67" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>35</v>
-      </c>
-      <c r="R67">
-        <v>20</v>
-      </c>
-      <c r="S67">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="T67">
-        <v>5</v>
-      </c>
-      <c r="U67">
-        <v>999</v>
-      </c>
-      <c r="V67">
-        <v>0</v>
-      </c>
-      <c r="W67" t="s">
-        <v>158</v>
-      </c>
-      <c r="X67" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y67" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z67" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA67">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AB67">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AC67" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AD67" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AE67" s="24">
-        <v>123</v>
-      </c>
-      <c r="AF67" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG67" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH67" s="23">
-        <v>0.6976</v>
-      </c>
-      <c r="AI67" s="23">
-        <v>0.6976</v>
-      </c>
-      <c r="AL67" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="AM67" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN67" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO67" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP67">
-        <v>0</v>
-      </c>
-      <c r="AQ67" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR67" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS67" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:45">
-      <c r="AC68" s="3"/>
-      <c r="AD68" s="5"/>
-      <c r="AE68" s="24"/>
-      <c r="AH68" s="23"/>
-      <c r="AI68" s="23"/>
-      <c r="AL68" s="29"/>
-      <c r="AS68" s="22"/>
-    </row>
-    <row r="69" spans="1:45">
-      <c r="B69" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="C69" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:45">
-      <c r="A70" t="s">
-        <v>151</v>
-      </c>
-      <c r="B70" t="s">
-        <v>103</v>
-      </c>
-      <c r="C70" t="b">
-        <v>0</v>
-      </c>
-      <c r="D70" t="b">
-        <v>0</v>
-      </c>
-      <c r="E70" t="s">
-        <v>127</v>
-      </c>
-      <c r="F70" t="b">
-        <v>0</v>
-      </c>
-      <c r="G70" t="s">
-        <v>144</v>
-      </c>
-      <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="b">
-        <v>1</v>
-      </c>
-      <c r="J70" t="b">
-        <v>1</v>
-      </c>
-      <c r="K70" t="b">
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <v>0.02</v>
-      </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-      <c r="P70" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>35</v>
-      </c>
-      <c r="R70">
-        <v>20</v>
-      </c>
-      <c r="S70">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="T70">
-        <v>5</v>
-      </c>
-      <c r="U70">
-        <v>999</v>
-      </c>
-      <c r="V70">
-        <v>0</v>
-      </c>
-      <c r="W70" t="s">
-        <v>158</v>
-      </c>
-      <c r="X70" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y70" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z70" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA70">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AB70">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AC70" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AD70" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AE70" s="24">
-        <v>123</v>
-      </c>
-      <c r="AF70" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG70" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH70" s="23"/>
-      <c r="AI70" s="23"/>
-      <c r="AJ70" s="30">
-        <v>81825573157</v>
-      </c>
-      <c r="AK70" s="30">
-        <v>81825573157</v>
-      </c>
-      <c r="AL70" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="AM70" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN70" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO70" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP70">
-        <v>0</v>
-      </c>
-      <c r="AQ70" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR70" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS70" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:45">
-      <c r="A71" t="s">
-        <v>152</v>
-      </c>
-      <c r="B71" t="s">
-        <v>110</v>
-      </c>
-      <c r="C71" t="b">
-        <v>0</v>
-      </c>
-      <c r="D71" t="b">
-        <v>0</v>
-      </c>
-      <c r="E71" t="s">
-        <v>127</v>
-      </c>
-      <c r="F71" t="b">
-        <v>0</v>
-      </c>
-      <c r="G71" t="s">
-        <v>144</v>
-      </c>
-      <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
-      <c r="J71" t="b">
-        <v>1</v>
-      </c>
-      <c r="K71" t="b">
-        <v>0</v>
-      </c>
-      <c r="L71">
-        <v>0.02</v>
-      </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
-      <c r="P71" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>35</v>
-      </c>
-      <c r="R71">
-        <v>20</v>
-      </c>
-      <c r="S71">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="T71">
-        <v>5</v>
-      </c>
-      <c r="U71">
-        <v>999</v>
-      </c>
-      <c r="V71">
-        <v>0</v>
-      </c>
-      <c r="W71" t="s">
-        <v>158</v>
-      </c>
-      <c r="X71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y71" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z71" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA71">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AB71">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AC71" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AD71" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AE71" s="24">
-        <v>123</v>
-      </c>
-      <c r="AF71" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG71" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH71" s="23"/>
-      <c r="AI71" s="23"/>
-      <c r="AJ71" s="30">
-        <v>81825573157</v>
-      </c>
-      <c r="AK71" s="30">
-        <v>81825573157</v>
-      </c>
-      <c r="AL71" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="AM71" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN71" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP71">
-        <v>0</v>
-      </c>
-      <c r="AQ71" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR71" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS71" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:45">
-      <c r="A73" t="s">
-        <v>153</v>
-      </c>
-      <c r="B73" t="s">
-        <v>102</v>
-      </c>
-      <c r="C73" t="b">
-        <v>0</v>
-      </c>
-      <c r="D73" t="b">
-        <v>0</v>
-      </c>
-      <c r="E73" t="s">
-        <v>132</v>
-      </c>
-      <c r="F73" t="b">
-        <v>0</v>
-      </c>
-      <c r="G73" t="s">
-        <v>144</v>
-      </c>
-      <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="b">
-        <v>1</v>
-      </c>
-      <c r="J73" t="b">
-        <v>1</v>
-      </c>
-      <c r="K73" t="b">
-        <v>1</v>
-      </c>
-      <c r="L73">
-        <v>0.02</v>
-      </c>
-      <c r="M73">
-        <v>0.01</v>
-      </c>
-      <c r="P73" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>35</v>
-      </c>
-      <c r="R73">
-        <v>20</v>
-      </c>
-      <c r="S73">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="T73">
-        <v>5</v>
-      </c>
-      <c r="U73">
-        <v>999</v>
-      </c>
-      <c r="V73">
-        <v>0</v>
-      </c>
-      <c r="W73" t="s">
-        <v>158</v>
-      </c>
-      <c r="X73" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y73" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z73" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA73">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AB73">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AC73" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AD73" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AE73" s="24">
-        <v>123</v>
-      </c>
-      <c r="AF73" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG73" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH73" s="23">
-        <v>0.6976</v>
-      </c>
-      <c r="AI73" s="23">
-        <v>0.6976</v>
-      </c>
-      <c r="AL73" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="AM73" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN73" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO73" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP73">
-        <v>0</v>
-      </c>
-      <c r="AQ73" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR73" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS73" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:45">
-      <c r="A74" t="s">
-        <v>154</v>
-      </c>
-      <c r="B74" t="s">
-        <v>109</v>
-      </c>
-      <c r="C74" t="b">
-        <v>0</v>
-      </c>
-      <c r="D74" t="b">
-        <v>0</v>
-      </c>
-      <c r="E74" t="s">
-        <v>132</v>
-      </c>
-      <c r="F74" t="b">
-        <v>0</v>
-      </c>
-      <c r="G74" t="s">
-        <v>144</v>
-      </c>
-      <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
-      <c r="J74" t="b">
-        <v>1</v>
-      </c>
-      <c r="K74" t="b">
-        <v>1</v>
-      </c>
-      <c r="L74">
-        <v>0.02</v>
-      </c>
-      <c r="M74">
-        <v>0.01</v>
-      </c>
-      <c r="P74" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>35</v>
-      </c>
-      <c r="R74">
-        <v>20</v>
-      </c>
-      <c r="S74">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="T74">
-        <v>5</v>
-      </c>
-      <c r="U74">
-        <v>999</v>
-      </c>
-      <c r="V74">
-        <v>0</v>
-      </c>
-      <c r="W74" t="s">
-        <v>158</v>
-      </c>
-      <c r="X74" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y74" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z74" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA74">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AB74">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AC74" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AD74" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AE74" s="24">
-        <v>123</v>
-      </c>
-      <c r="AF74" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG74" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH74" s="23">
-        <v>0.6976</v>
-      </c>
-      <c r="AI74" s="23">
-        <v>0.6976</v>
-      </c>
-      <c r="AL74" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="AM74" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN74" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO74" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP74">
-        <v>0</v>
-      </c>
-      <c r="AQ74" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR74" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS74" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:45">
-      <c r="A76" t="s">
-        <v>155</v>
-      </c>
-      <c r="B76" t="s">
-        <v>106</v>
-      </c>
-      <c r="C76" t="b">
-        <v>0</v>
-      </c>
-      <c r="D76" t="b">
-        <v>0</v>
-      </c>
-      <c r="E76" t="s">
-        <v>133</v>
-      </c>
-      <c r="F76" t="b">
-        <v>0</v>
-      </c>
-      <c r="G76" t="s">
-        <v>144</v>
-      </c>
-      <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="b">
-        <v>1</v>
-      </c>
-      <c r="J76" t="b">
-        <v>1</v>
-      </c>
-      <c r="K76" t="b">
-        <v>1</v>
-      </c>
-      <c r="L76">
-        <v>0.02</v>
-      </c>
-      <c r="M76">
-        <v>0.01</v>
-      </c>
-      <c r="P76" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>35</v>
-      </c>
-      <c r="R76">
-        <v>20</v>
-      </c>
-      <c r="S76">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="T76">
-        <v>5</v>
-      </c>
-      <c r="U76">
-        <v>999</v>
-      </c>
-      <c r="V76">
-        <v>0</v>
-      </c>
-      <c r="W76" t="s">
-        <v>158</v>
-      </c>
-      <c r="X76" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y76" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z76" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA76">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AB76">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AC76" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AD76" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AE76" s="24">
-        <v>123</v>
-      </c>
-      <c r="AF76" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG76" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH76" s="23">
-        <v>0.6976</v>
-      </c>
-      <c r="AI76" s="23">
-        <v>0.6976</v>
-      </c>
-      <c r="AL76" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="AM76" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN76" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO76" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP76">
-        <v>0</v>
-      </c>
-      <c r="AQ76" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR76" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS76" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:45">
-      <c r="A77" t="s">
-        <v>156</v>
-      </c>
-      <c r="B77" t="s">
-        <v>107</v>
-      </c>
-      <c r="C77" t="b">
-        <v>0</v>
-      </c>
-      <c r="D77" t="b">
-        <v>0</v>
-      </c>
-      <c r="E77" t="s">
-        <v>133</v>
-      </c>
-      <c r="F77" t="b">
-        <v>0</v>
-      </c>
-      <c r="G77" t="s">
-        <v>144</v>
-      </c>
-      <c r="H77" t="b">
-        <v>1</v>
-      </c>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77" t="b">
-        <v>1</v>
-      </c>
-      <c r="K77" t="b">
-        <v>1</v>
-      </c>
-      <c r="L77">
-        <v>0.02</v>
-      </c>
-      <c r="M77">
-        <v>0.01</v>
-      </c>
-      <c r="P77" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>35</v>
-      </c>
-      <c r="R77">
-        <v>20</v>
-      </c>
-      <c r="S77">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="T77">
-        <v>5</v>
-      </c>
-      <c r="U77">
-        <v>999</v>
-      </c>
-      <c r="V77">
-        <v>0</v>
-      </c>
-      <c r="W77" t="s">
-        <v>158</v>
-      </c>
-      <c r="X77" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y77" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z77" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA77">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AB77">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AC77" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AD77" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AE77" s="24">
-        <v>123</v>
-      </c>
-      <c r="AF77" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG77" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH77" s="23">
-        <v>0.6976</v>
-      </c>
-      <c r="AI77" s="23">
-        <v>0.6976</v>
-      </c>
-      <c r="AL77" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="AM77" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN77" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO77" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP77">
-        <v>0</v>
-      </c>
-      <c r="AQ77" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR77" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS77" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:45">
-      <c r="B95" s="33" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="96" spans="1:45">
-      <c r="A96" t="s">
-        <v>159</v>
-      </c>
-      <c r="B96" t="s">
-        <v>117</v>
-      </c>
-      <c r="C96" t="b">
-        <v>0</v>
-      </c>
-      <c r="D96" t="b">
-        <v>0</v>
-      </c>
-      <c r="E96" t="s">
-        <v>172</v>
-      </c>
-      <c r="F96" t="b">
-        <v>0</v>
-      </c>
-      <c r="G96" t="s">
-        <v>159</v>
-      </c>
-      <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="b">
-        <v>0</v>
-      </c>
-      <c r="J96" t="b">
-        <v>0</v>
-      </c>
-      <c r="K96" t="b">
-        <v>0</v>
-      </c>
-      <c r="L96">
-        <v>0.02</v>
-      </c>
-      <c r="M96">
-        <v>0</v>
-      </c>
-      <c r="P96" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>35</v>
-      </c>
-      <c r="R96">
-        <v>20</v>
-      </c>
-      <c r="S96">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="T96">
-        <v>5</v>
-      </c>
-      <c r="U96">
-        <v>999</v>
-      </c>
-      <c r="V96">
-        <v>0</v>
-      </c>
-      <c r="W96" t="s">
-        <v>158</v>
-      </c>
-      <c r="X96" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y96" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z96" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA96">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AB96">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AC96" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AD96" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AE96" s="24">
-        <v>123</v>
-      </c>
-      <c r="AF96" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG96" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH96" s="23">
-        <v>0.69179999999999997</v>
-      </c>
-      <c r="AI96" s="23">
-        <v>0.69179999999999997</v>
-      </c>
-      <c r="AL96" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="AM96" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN96" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO96" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP96">
-        <v>0</v>
-      </c>
-      <c r="AQ96" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR96" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS96" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:45">
-      <c r="AC97" s="3"/>
-      <c r="AD97" s="5"/>
-      <c r="AE97" s="24"/>
-      <c r="AH97" s="23"/>
-      <c r="AI97" s="23"/>
-      <c r="AL97" s="29"/>
-      <c r="AS97" s="22"/>
-    </row>
-    <row r="98" spans="1:45">
-      <c r="B98" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC98" s="3"/>
-      <c r="AD98" s="5"/>
-      <c r="AE98" s="24"/>
-      <c r="AH98" s="23"/>
-      <c r="AI98" s="23"/>
-      <c r="AL98" s="29"/>
-      <c r="AS98" s="22"/>
-    </row>
-    <row r="99" spans="1:45">
-      <c r="A99" t="s">
-        <v>160</v>
-      </c>
-      <c r="B99" t="s">
-        <v>103</v>
-      </c>
-      <c r="C99" t="b">
-        <v>0</v>
-      </c>
-      <c r="D99" t="b">
-        <v>0</v>
-      </c>
-      <c r="E99" t="s">
-        <v>176</v>
-      </c>
-      <c r="F99" t="b">
-        <v>0</v>
-      </c>
-      <c r="G99" t="s">
-        <v>159</v>
-      </c>
-      <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="b">
-        <v>1</v>
-      </c>
-      <c r="J99" t="b">
-        <v>1</v>
-      </c>
-      <c r="K99" t="b">
-        <v>0</v>
-      </c>
-      <c r="L99">
-        <v>0.02</v>
-      </c>
-      <c r="M99">
-        <v>0</v>
-      </c>
-      <c r="P99" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q99" t="s">
-        <v>35</v>
-      </c>
-      <c r="R99">
-        <v>20</v>
-      </c>
-      <c r="S99">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="T99">
-        <v>5</v>
-      </c>
-      <c r="U99">
-        <v>999</v>
-      </c>
-      <c r="V99">
-        <v>0</v>
-      </c>
-      <c r="W99" t="s">
-        <v>158</v>
-      </c>
-      <c r="X99" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y99" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA99">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AB99">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AC99" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AD99" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AE99" s="24">
-        <v>123</v>
-      </c>
-      <c r="AF99" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG99" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH99" s="23"/>
-      <c r="AI99" s="23"/>
-      <c r="AJ99" s="30">
-        <v>81825573157</v>
-      </c>
-      <c r="AK99" s="30">
-        <v>81825573157</v>
-      </c>
-      <c r="AL99" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="AM99" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN99" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO99" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP99">
-        <v>0</v>
-      </c>
-      <c r="AQ99" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR99" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS99" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:45">
-      <c r="A100" t="s">
-        <v>161</v>
-      </c>
-      <c r="B100" t="s">
-        <v>110</v>
-      </c>
-      <c r="C100" t="b">
-        <v>0</v>
-      </c>
-      <c r="D100" t="b">
-        <v>0</v>
-      </c>
-      <c r="E100" t="s">
-        <v>176</v>
-      </c>
-      <c r="F100" t="b">
-        <v>0</v>
-      </c>
-      <c r="G100" t="s">
-        <v>159</v>
-      </c>
-      <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="b">
-        <v>0</v>
-      </c>
-      <c r="J100" t="b">
-        <v>1</v>
-      </c>
-      <c r="K100" t="b">
-        <v>0</v>
-      </c>
-      <c r="L100">
-        <v>0.02</v>
-      </c>
-      <c r="M100">
-        <v>0</v>
-      </c>
-      <c r="P100" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q100" t="s">
-        <v>35</v>
-      </c>
-      <c r="R100">
-        <v>20</v>
-      </c>
-      <c r="S100">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="T100">
-        <v>5</v>
-      </c>
-      <c r="U100">
-        <v>999</v>
-      </c>
-      <c r="V100">
-        <v>0</v>
-      </c>
-      <c r="W100" t="s">
-        <v>158</v>
-      </c>
-      <c r="X100" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y100" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z100" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA100">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AB100">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AC100" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AD100" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AE100" s="24">
-        <v>123</v>
-      </c>
-      <c r="AF100" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG100" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH100" s="23"/>
-      <c r="AI100" s="23"/>
-      <c r="AJ100" s="30">
-        <v>81825573157</v>
-      </c>
-      <c r="AK100" s="30">
-        <v>81825573157</v>
-      </c>
-      <c r="AL100" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="AM100" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN100" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO100" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP100">
-        <v>0</v>
-      </c>
-      <c r="AQ100" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR100" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS100" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:45">
-      <c r="AH101" s="23"/>
-      <c r="AI101" s="23"/>
-    </row>
-    <row r="102" spans="1:45">
-      <c r="A102" t="s">
-        <v>162</v>
-      </c>
-      <c r="B102" t="s">
-        <v>102</v>
-      </c>
-      <c r="C102" t="b">
-        <v>0</v>
-      </c>
-      <c r="D102" t="b">
-        <v>0</v>
-      </c>
-      <c r="E102" t="s">
-        <v>178</v>
-      </c>
-      <c r="F102" t="b">
-        <v>0</v>
-      </c>
-      <c r="G102" t="s">
-        <v>159</v>
-      </c>
-      <c r="H102" t="b">
-        <v>1</v>
-      </c>
-      <c r="I102" t="b">
-        <v>1</v>
-      </c>
-      <c r="J102" t="b">
-        <v>1</v>
-      </c>
-      <c r="K102" t="b">
-        <v>1</v>
-      </c>
-      <c r="L102">
-        <v>0.02</v>
-      </c>
-      <c r="M102">
-        <v>0</v>
-      </c>
-      <c r="P102" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q102" t="s">
-        <v>35</v>
-      </c>
-      <c r="R102">
-        <v>20</v>
-      </c>
-      <c r="S102">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="T102">
-        <v>5</v>
-      </c>
-      <c r="U102">
-        <v>999</v>
-      </c>
-      <c r="V102">
-        <v>0</v>
-      </c>
-      <c r="W102" t="s">
-        <v>158</v>
-      </c>
-      <c r="X102" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y102" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z102" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA102">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AB102">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AC102" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AD102" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AE102" s="24">
-        <v>123</v>
-      </c>
-      <c r="AF102" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG102" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH102" s="23">
-        <v>0.69179999999999997</v>
-      </c>
-      <c r="AI102" s="23">
-        <v>0.69179999999999997</v>
-      </c>
-      <c r="AL102" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="AM102" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN102" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO102" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP102">
-        <v>0</v>
-      </c>
-      <c r="AQ102" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR102" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS102" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:45">
-      <c r="A103" t="s">
-        <v>163</v>
-      </c>
-      <c r="B103" t="s">
-        <v>109</v>
-      </c>
-      <c r="C103" t="b">
-        <v>0</v>
-      </c>
-      <c r="D103" t="b">
-        <v>0</v>
-      </c>
-      <c r="E103" t="s">
-        <v>178</v>
-      </c>
-      <c r="F103" t="b">
-        <v>0</v>
-      </c>
-      <c r="G103" t="s">
-        <v>159</v>
-      </c>
-      <c r="H103" t="b">
-        <v>1</v>
-      </c>
-      <c r="I103" t="b">
-        <v>0</v>
-      </c>
-      <c r="J103" t="b">
-        <v>1</v>
-      </c>
-      <c r="K103" t="b">
-        <v>1</v>
-      </c>
-      <c r="L103">
-        <v>0.02</v>
-      </c>
-      <c r="M103">
-        <v>0</v>
-      </c>
-      <c r="P103" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q103" t="s">
-        <v>35</v>
-      </c>
-      <c r="R103">
-        <v>20</v>
-      </c>
-      <c r="S103">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="T103">
-        <v>5</v>
-      </c>
-      <c r="U103">
-        <v>999</v>
-      </c>
-      <c r="V103">
-        <v>0</v>
-      </c>
-      <c r="W103" t="s">
-        <v>158</v>
-      </c>
-      <c r="X103" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y103" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z103" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA103">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AB103">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AC103" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AD103" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AE103" s="24">
-        <v>123</v>
-      </c>
-      <c r="AF103" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG103" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH103" s="23">
-        <v>0.69179999999999997</v>
-      </c>
-      <c r="AI103" s="23">
-        <v>0.69179999999999997</v>
-      </c>
-      <c r="AL103" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="AM103" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN103" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO103" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP103">
-        <v>0</v>
-      </c>
-      <c r="AQ103" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR103" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS103" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:45">
-      <c r="A105" t="s">
-        <v>164</v>
-      </c>
-      <c r="B105" t="s">
-        <v>106</v>
-      </c>
-      <c r="C105" t="b">
-        <v>0</v>
-      </c>
-      <c r="D105" t="b">
-        <v>0</v>
-      </c>
-      <c r="E105" t="s">
-        <v>182</v>
-      </c>
-      <c r="F105" t="b">
-        <v>0</v>
-      </c>
-      <c r="G105" t="s">
-        <v>159</v>
-      </c>
-      <c r="H105" t="b">
-        <v>1</v>
-      </c>
-      <c r="I105" t="b">
-        <v>1</v>
-      </c>
-      <c r="J105" t="b">
-        <v>1</v>
-      </c>
-      <c r="K105" t="b">
-        <v>1</v>
-      </c>
-      <c r="L105">
-        <v>0.02</v>
-      </c>
-      <c r="M105">
-        <v>0</v>
-      </c>
-      <c r="P105" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q105" t="s">
-        <v>35</v>
-      </c>
-      <c r="R105">
-        <v>20</v>
-      </c>
-      <c r="S105">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="T105">
-        <v>5</v>
-      </c>
-      <c r="U105">
-        <v>999</v>
-      </c>
-      <c r="V105">
-        <v>0</v>
-      </c>
-      <c r="W105" t="s">
-        <v>158</v>
-      </c>
-      <c r="X105" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y105" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z105" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA105">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AB105">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AC105" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AD105" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AE105" s="24">
-        <v>123</v>
-      </c>
-      <c r="AF105" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG105" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH105" s="23">
-        <v>0.69179999999999997</v>
-      </c>
-      <c r="AI105" s="23">
-        <v>0.69179999999999997</v>
-      </c>
-      <c r="AL105" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="AM105" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN105" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO105" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP105">
-        <v>0</v>
-      </c>
-      <c r="AQ105" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR105" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS105" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:45">
-      <c r="A106" t="s">
-        <v>165</v>
-      </c>
-      <c r="B106" t="s">
-        <v>107</v>
-      </c>
-      <c r="C106" t="b">
-        <v>0</v>
-      </c>
-      <c r="D106" t="b">
-        <v>0</v>
-      </c>
-      <c r="E106" t="s">
-        <v>182</v>
-      </c>
-      <c r="F106" t="b">
-        <v>0</v>
-      </c>
-      <c r="G106" t="s">
-        <v>159</v>
-      </c>
-      <c r="H106" t="b">
-        <v>1</v>
-      </c>
-      <c r="I106" t="b">
-        <v>0</v>
-      </c>
-      <c r="J106" t="b">
-        <v>1</v>
-      </c>
-      <c r="K106" t="b">
-        <v>1</v>
-      </c>
-      <c r="L106">
-        <v>0.02</v>
-      </c>
-      <c r="M106">
-        <v>0</v>
-      </c>
-      <c r="P106" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q106" t="s">
-        <v>35</v>
-      </c>
-      <c r="R106">
-        <v>20</v>
-      </c>
-      <c r="S106">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="T106">
-        <v>5</v>
-      </c>
-      <c r="U106">
-        <v>999</v>
-      </c>
-      <c r="V106">
-        <v>0</v>
-      </c>
-      <c r="W106" t="s">
-        <v>158</v>
-      </c>
-      <c r="X106" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y106" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z106" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA106">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AB106">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AC106" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AD106" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AE106" s="24">
-        <v>123</v>
-      </c>
-      <c r="AF106" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG106" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH106" s="23">
-        <v>0.69179999999999997</v>
-      </c>
-      <c r="AI106" s="23">
-        <v>0.69179999999999997</v>
-      </c>
-      <c r="AL106" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="AM106" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN106" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO106" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP106">
-        <v>0</v>
-      </c>
-      <c r="AQ106" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR106" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS106" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:45">
-      <c r="AC107" s="3"/>
-      <c r="AD107" s="5"/>
-      <c r="AE107" s="24"/>
-      <c r="AH107" s="23"/>
-      <c r="AI107" s="23"/>
-      <c r="AL107" s="29"/>
-      <c r="AS107" s="22"/>
-    </row>
-    <row r="108" spans="1:45">
-      <c r="B108" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="C108" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC108" s="3"/>
-      <c r="AD108" s="5"/>
-      <c r="AE108" s="24"/>
-      <c r="AH108" s="23"/>
-      <c r="AI108" s="23"/>
-      <c r="AL108" s="29"/>
-      <c r="AS108" s="22"/>
-    </row>
-    <row r="109" spans="1:45">
-      <c r="A109" t="s">
-        <v>166</v>
-      </c>
-      <c r="B109" t="s">
-        <v>103</v>
-      </c>
-      <c r="C109" t="b">
-        <v>0</v>
-      </c>
-      <c r="D109" t="b">
-        <v>0</v>
-      </c>
-      <c r="E109" t="s">
-        <v>174</v>
-      </c>
-      <c r="F109" t="b">
-        <v>0</v>
-      </c>
-      <c r="G109" t="s">
-        <v>159</v>
-      </c>
-      <c r="H109" t="b">
-        <v>1</v>
-      </c>
-      <c r="I109" t="b">
-        <v>1</v>
-      </c>
-      <c r="J109" t="b">
-        <v>1</v>
-      </c>
-      <c r="K109" t="b">
-        <v>0</v>
-      </c>
-      <c r="L109">
-        <v>0.02</v>
-      </c>
-      <c r="M109">
-        <v>0</v>
-      </c>
-      <c r="P109" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q109" t="s">
-        <v>35</v>
-      </c>
-      <c r="R109">
-        <v>20</v>
-      </c>
-      <c r="S109">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="T109">
-        <v>5</v>
-      </c>
-      <c r="U109">
-        <v>999</v>
-      </c>
-      <c r="V109">
-        <v>0</v>
-      </c>
-      <c r="W109" t="s">
-        <v>158</v>
-      </c>
-      <c r="X109" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y109" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z109" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA109">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AB109">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AC109" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AD109" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AE109" s="24">
-        <v>123</v>
-      </c>
-      <c r="AF109" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG109" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH109" s="23"/>
-      <c r="AI109" s="23"/>
-      <c r="AJ109" s="30">
-        <v>81825573157</v>
-      </c>
-      <c r="AK109" s="30">
-        <v>81825573157</v>
-      </c>
-      <c r="AL109" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="AM109" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN109" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO109" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP109">
-        <v>0</v>
-      </c>
-      <c r="AQ109" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR109" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS109" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:45">
-      <c r="A110" t="s">
-        <v>167</v>
-      </c>
-      <c r="B110" t="s">
-        <v>110</v>
-      </c>
-      <c r="C110" t="b">
-        <v>0</v>
-      </c>
-      <c r="D110" t="b">
-        <v>0</v>
-      </c>
-      <c r="E110" t="s">
-        <v>174</v>
-      </c>
-      <c r="F110" t="b">
-        <v>0</v>
-      </c>
-      <c r="G110" t="s">
-        <v>159</v>
-      </c>
-      <c r="H110" t="b">
-        <v>1</v>
-      </c>
-      <c r="I110" t="b">
-        <v>0</v>
-      </c>
-      <c r="J110" t="b">
-        <v>1</v>
-      </c>
-      <c r="K110" t="b">
-        <v>0</v>
-      </c>
-      <c r="L110">
-        <v>0.02</v>
-      </c>
-      <c r="M110">
-        <v>0</v>
-      </c>
-      <c r="P110" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q110" t="s">
-        <v>35</v>
-      </c>
-      <c r="R110">
-        <v>20</v>
-      </c>
-      <c r="S110">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="T110">
-        <v>5</v>
-      </c>
-      <c r="U110">
-        <v>999</v>
-      </c>
-      <c r="V110">
-        <v>0</v>
-      </c>
-      <c r="W110" t="s">
-        <v>158</v>
-      </c>
-      <c r="X110" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y110" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z110" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA110">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AB110">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AC110" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AD110" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AE110" s="24">
-        <v>123</v>
-      </c>
-      <c r="AF110" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG110" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH110" s="23"/>
-      <c r="AI110" s="23"/>
-      <c r="AJ110" s="30">
-        <v>81825573157</v>
-      </c>
-      <c r="AK110" s="30">
-        <v>81825573157</v>
-      </c>
-      <c r="AL110" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="AM110" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN110" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP110">
-        <v>0</v>
-      </c>
-      <c r="AQ110" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR110" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS110" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:45">
-      <c r="AH111" s="23"/>
-      <c r="AI111" s="23"/>
-    </row>
-    <row r="112" spans="1:45">
-      <c r="A112" t="s">
-        <v>168</v>
-      </c>
-      <c r="B112" t="s">
-        <v>102</v>
-      </c>
-      <c r="C112" t="b">
-        <v>0</v>
-      </c>
-      <c r="D112" t="b">
-        <v>0</v>
-      </c>
-      <c r="E112" t="s">
-        <v>184</v>
-      </c>
-      <c r="F112" t="b">
-        <v>0</v>
-      </c>
-      <c r="G112" t="s">
-        <v>159</v>
-      </c>
-      <c r="H112" t="b">
-        <v>1</v>
-      </c>
-      <c r="I112" t="b">
-        <v>1</v>
-      </c>
-      <c r="J112" t="b">
-        <v>1</v>
-      </c>
-      <c r="K112" t="b">
-        <v>1</v>
-      </c>
-      <c r="L112">
-        <v>0.02</v>
-      </c>
-      <c r="M112">
-        <v>0.01</v>
-      </c>
-      <c r="P112" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q112" t="s">
-        <v>35</v>
-      </c>
-      <c r="R112">
-        <v>20</v>
-      </c>
-      <c r="S112">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="T112">
-        <v>5</v>
-      </c>
-      <c r="U112">
-        <v>999</v>
-      </c>
-      <c r="V112">
-        <v>0</v>
-      </c>
-      <c r="W112" t="s">
-        <v>158</v>
-      </c>
-      <c r="X112" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y112" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z112" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA112">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AB112">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AC112" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AD112" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AE112" s="24">
-        <v>123</v>
-      </c>
-      <c r="AF112" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG112" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH112" s="23">
-        <v>0.69179999999999997</v>
-      </c>
-      <c r="AI112" s="23">
-        <v>0.69179999999999997</v>
-      </c>
-      <c r="AL112" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="AM112" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN112" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO112" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP112">
-        <v>0</v>
-      </c>
-      <c r="AQ112" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR112" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS112" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:45">
-      <c r="A113" t="s">
-        <v>169</v>
-      </c>
-      <c r="B113" t="s">
-        <v>109</v>
-      </c>
-      <c r="C113" t="b">
-        <v>0</v>
-      </c>
-      <c r="D113" t="b">
-        <v>0</v>
-      </c>
-      <c r="E113" t="s">
-        <v>184</v>
-      </c>
-      <c r="F113" t="b">
-        <v>0</v>
-      </c>
-      <c r="G113" t="s">
-        <v>159</v>
-      </c>
-      <c r="H113" t="b">
-        <v>1</v>
-      </c>
-      <c r="I113" t="b">
-        <v>0</v>
-      </c>
-      <c r="J113" t="b">
-        <v>1</v>
-      </c>
-      <c r="K113" t="b">
-        <v>1</v>
-      </c>
-      <c r="L113">
-        <v>0.02</v>
-      </c>
-      <c r="M113">
-        <v>0.01</v>
-      </c>
-      <c r="P113" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q113" t="s">
-        <v>35</v>
-      </c>
-      <c r="R113">
-        <v>20</v>
-      </c>
-      <c r="S113">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="T113">
-        <v>5</v>
-      </c>
-      <c r="U113">
-        <v>999</v>
-      </c>
-      <c r="V113">
-        <v>0</v>
-      </c>
-      <c r="W113" t="s">
-        <v>158</v>
-      </c>
-      <c r="X113" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y113" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z113" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA113">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AB113">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AC113" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AD113" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AE113" s="24">
-        <v>123</v>
-      </c>
-      <c r="AF113" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG113" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH113" s="23">
-        <v>0.69179999999999997</v>
-      </c>
-      <c r="AI113" s="23">
-        <v>0.69179999999999997</v>
-      </c>
-      <c r="AL113" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="AM113" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN113" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO113" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP113">
-        <v>0</v>
-      </c>
-      <c r="AQ113" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR113" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS113" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:45">
-      <c r="A115" t="s">
-        <v>170</v>
-      </c>
-      <c r="B115" t="s">
-        <v>106</v>
-      </c>
-      <c r="C115" t="b">
-        <v>0</v>
-      </c>
-      <c r="D115" t="b">
-        <v>0</v>
-      </c>
-      <c r="E115" t="s">
-        <v>186</v>
-      </c>
-      <c r="F115" t="b">
-        <v>0</v>
-      </c>
-      <c r="G115" t="s">
-        <v>159</v>
-      </c>
-      <c r="H115" t="b">
-        <v>1</v>
-      </c>
-      <c r="I115" t="b">
-        <v>1</v>
-      </c>
-      <c r="J115" t="b">
-        <v>1</v>
-      </c>
-      <c r="K115" t="b">
-        <v>1</v>
-      </c>
-      <c r="L115">
-        <v>0.02</v>
-      </c>
-      <c r="M115">
-        <v>0.01</v>
-      </c>
-      <c r="P115" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q115" t="s">
-        <v>35</v>
-      </c>
-      <c r="R115">
-        <v>20</v>
-      </c>
-      <c r="S115">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="T115">
-        <v>5</v>
-      </c>
-      <c r="U115">
-        <v>999</v>
-      </c>
-      <c r="V115">
-        <v>0</v>
-      </c>
-      <c r="W115" t="s">
-        <v>158</v>
-      </c>
-      <c r="X115" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y115" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z115" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA115">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AB115">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AC115" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AD115" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AE115" s="24">
-        <v>123</v>
-      </c>
-      <c r="AF115" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG115" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH115" s="23">
-        <v>0.69179999999999997</v>
-      </c>
-      <c r="AI115" s="23">
-        <v>0.69179999999999997</v>
-      </c>
-      <c r="AL115" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="AM115" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN115" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO115" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP115">
-        <v>0</v>
-      </c>
-      <c r="AQ115" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR115" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS115" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:45">
-      <c r="A116" t="s">
-        <v>171</v>
-      </c>
-      <c r="B116" t="s">
-        <v>107</v>
-      </c>
-      <c r="C116" t="b">
-        <v>0</v>
-      </c>
-      <c r="D116" t="b">
-        <v>0</v>
-      </c>
-      <c r="E116" t="s">
-        <v>186</v>
-      </c>
-      <c r="F116" t="b">
-        <v>0</v>
-      </c>
-      <c r="G116" t="s">
-        <v>159</v>
-      </c>
-      <c r="H116" t="b">
-        <v>1</v>
-      </c>
-      <c r="I116" t="b">
-        <v>0</v>
-      </c>
-      <c r="J116" t="b">
-        <v>1</v>
-      </c>
-      <c r="K116" t="b">
-        <v>1</v>
-      </c>
-      <c r="L116">
-        <v>0.02</v>
-      </c>
-      <c r="M116">
-        <v>0.01</v>
-      </c>
-      <c r="P116" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q116" t="s">
-        <v>35</v>
-      </c>
-      <c r="R116">
-        <v>20</v>
-      </c>
-      <c r="S116">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="T116">
-        <v>5</v>
-      </c>
-      <c r="U116">
-        <v>999</v>
-      </c>
-      <c r="V116">
-        <v>0</v>
-      </c>
-      <c r="W116" t="s">
-        <v>158</v>
-      </c>
-      <c r="X116" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y116" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z116" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA116">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AB116">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AC116" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AD116" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AE116" s="24">
-        <v>123</v>
-      </c>
-      <c r="AF116" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG116" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH116" s="23">
-        <v>0.69179999999999997</v>
-      </c>
-      <c r="AI116" s="23">
-        <v>0.69179999999999997</v>
-      </c>
-      <c r="AL116" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="AM116" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN116" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO116" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP116">
-        <v>0</v>
-      </c>
-      <c r="AQ116" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR116" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS116" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:45">
-      <c r="AC117" s="3"/>
-      <c r="AD117" s="5"/>
-      <c r="AE117" s="24"/>
-      <c r="AH117" s="23"/>
-      <c r="AI117" s="23"/>
-      <c r="AL117" s="29"/>
-      <c r="AS117" s="22"/>
-    </row>
-    <row r="119" spans="1:45">
-      <c r="B119" s="33" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="120" spans="1:45">
-      <c r="A120" t="s">
-        <v>203</v>
-      </c>
-      <c r="B120" t="s">
-        <v>102</v>
-      </c>
-      <c r="C120" t="b">
-        <v>0</v>
-      </c>
-      <c r="D120" t="b">
-        <v>0</v>
-      </c>
-      <c r="E120" t="s">
-        <v>129</v>
-      </c>
-      <c r="F120" t="b">
-        <v>0</v>
-      </c>
-      <c r="G120" t="s">
-        <v>144</v>
-      </c>
-      <c r="H120" t="b">
-        <v>1</v>
-      </c>
-      <c r="I120" t="b">
-        <v>1</v>
-      </c>
-      <c r="J120" t="b">
-        <v>1</v>
-      </c>
-      <c r="K120" t="b">
-        <v>1</v>
-      </c>
-      <c r="L120">
-        <v>0.02</v>
-      </c>
-      <c r="M120">
-        <v>0</v>
-      </c>
-      <c r="N120">
-        <v>0.05</v>
-      </c>
-      <c r="O120">
-        <v>1.22</v>
-      </c>
-      <c r="P120" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q120" t="s">
-        <v>35</v>
-      </c>
-      <c r="R120">
-        <v>20</v>
-      </c>
-      <c r="S120">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="T120">
-        <v>5</v>
-      </c>
-      <c r="U120">
-        <v>999</v>
-      </c>
-      <c r="V120">
-        <v>0</v>
-      </c>
-      <c r="W120" t="s">
-        <v>158</v>
-      </c>
-      <c r="X120" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y120" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z120" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA120">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AB120">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AC120" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AD120" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AE120" s="24">
-        <v>123</v>
-      </c>
-      <c r="AF120" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG120" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH120" s="23">
-        <v>0.6976</v>
-      </c>
-      <c r="AI120" s="23">
-        <v>0.6976</v>
-      </c>
-      <c r="AL120" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="AM120" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN120" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO120" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP120">
-        <v>0</v>
-      </c>
-      <c r="AQ120" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR120" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS120" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:45">
-      <c r="A121" t="s">
-        <v>204</v>
-      </c>
-      <c r="B121" t="s">
-        <v>109</v>
-      </c>
-      <c r="C121" t="b">
-        <v>0</v>
-      </c>
-      <c r="D121" t="b">
-        <v>0</v>
-      </c>
-      <c r="E121" t="s">
-        <v>129</v>
-      </c>
-      <c r="F121" t="b">
-        <v>0</v>
-      </c>
-      <c r="G121" t="s">
-        <v>144</v>
-      </c>
-      <c r="H121" t="b">
-        <v>1</v>
-      </c>
-      <c r="I121" t="b">
-        <v>0</v>
-      </c>
-      <c r="J121" t="b">
-        <v>1</v>
-      </c>
-      <c r="K121" t="b">
-        <v>1</v>
-      </c>
-      <c r="L121">
-        <v>0.02</v>
-      </c>
-      <c r="M121">
-        <v>0</v>
-      </c>
-      <c r="N121">
-        <v>0.05</v>
-      </c>
-      <c r="O121">
-        <v>1.22</v>
-      </c>
-      <c r="P121" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q121" t="s">
-        <v>35</v>
-      </c>
-      <c r="R121">
-        <v>20</v>
-      </c>
-      <c r="S121">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="T121">
-        <v>5</v>
-      </c>
-      <c r="U121">
-        <v>999</v>
-      </c>
-      <c r="V121">
-        <v>0</v>
-      </c>
-      <c r="W121" t="s">
-        <v>158</v>
-      </c>
-      <c r="X121" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y121" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z121" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA121">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AB121">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AC121" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AD121" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AE121" s="24">
-        <v>123</v>
-      </c>
-      <c r="AF121" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG121" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH121" s="23">
-        <v>0.6976</v>
-      </c>
-      <c r="AI121" s="23">
-        <v>0.6976</v>
-      </c>
-      <c r="AL121" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="AM121" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN121" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO121" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP121">
-        <v>0</v>
-      </c>
-      <c r="AQ121" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR121" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS121" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:45">
-      <c r="AC122" s="3"/>
-      <c r="AD122" s="5"/>
-      <c r="AE122" s="24"/>
-      <c r="AH122" s="23"/>
-      <c r="AI122" s="23"/>
-      <c r="AL122" s="29"/>
-      <c r="AS122" s="22"/>
-    </row>
-    <row r="123" spans="1:45">
-      <c r="A123" t="s">
-        <v>205</v>
-      </c>
-      <c r="B123" t="s">
-        <v>102</v>
-      </c>
-      <c r="C123" t="b">
-        <v>0</v>
-      </c>
-      <c r="D123" t="b">
-        <v>0</v>
-      </c>
-      <c r="E123" t="s">
-        <v>178</v>
-      </c>
-      <c r="F123" t="b">
-        <v>0</v>
-      </c>
-      <c r="G123" t="s">
-        <v>159</v>
-      </c>
-      <c r="H123" t="b">
-        <v>1</v>
-      </c>
-      <c r="I123" t="b">
-        <v>1</v>
-      </c>
-      <c r="J123" t="b">
-        <v>1</v>
-      </c>
-      <c r="K123" t="b">
-        <v>1</v>
-      </c>
-      <c r="L123">
-        <v>0.02</v>
-      </c>
-      <c r="M123">
-        <v>0</v>
-      </c>
-      <c r="N123">
-        <v>0.05</v>
-      </c>
-      <c r="O123">
-        <v>1.25</v>
-      </c>
-      <c r="P123" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q123" t="s">
-        <v>35</v>
-      </c>
-      <c r="R123">
-        <v>20</v>
-      </c>
-      <c r="S123">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="T123">
-        <v>5</v>
-      </c>
-      <c r="U123">
-        <v>999</v>
-      </c>
-      <c r="V123">
-        <v>0</v>
-      </c>
-      <c r="W123" t="s">
-        <v>158</v>
-      </c>
-      <c r="X123" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y123" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z123" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA123">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AB123">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AC123" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AD123" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AE123" s="24">
-        <v>123</v>
-      </c>
-      <c r="AF123" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG123" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH123" s="23">
-        <v>0.69179999999999997</v>
-      </c>
-      <c r="AI123" s="23">
-        <v>0.69179999999999997</v>
-      </c>
-      <c r="AL123" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="AM123" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN123" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO123" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP123">
-        <v>0</v>
-      </c>
-      <c r="AQ123" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR123" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS123" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:45">
-      <c r="A124" t="s">
-        <v>206</v>
-      </c>
-      <c r="B124" t="s">
-        <v>109</v>
-      </c>
-      <c r="C124" t="b">
-        <v>0</v>
-      </c>
-      <c r="D124" t="b">
-        <v>0</v>
-      </c>
-      <c r="E124" t="s">
-        <v>178</v>
-      </c>
-      <c r="F124" t="b">
-        <v>0</v>
-      </c>
-      <c r="G124" t="s">
-        <v>159</v>
-      </c>
-      <c r="H124" t="b">
-        <v>1</v>
-      </c>
-      <c r="I124" t="b">
-        <v>0</v>
-      </c>
-      <c r="J124" t="b">
-        <v>1</v>
-      </c>
-      <c r="K124" t="b">
-        <v>1</v>
-      </c>
-      <c r="L124">
-        <v>0.02</v>
-      </c>
-      <c r="M124">
-        <v>0</v>
-      </c>
-      <c r="N124">
-        <v>0.05</v>
-      </c>
-      <c r="O124">
-        <v>1.25</v>
-      </c>
-      <c r="P124" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q124" t="s">
-        <v>35</v>
-      </c>
-      <c r="R124">
-        <v>20</v>
-      </c>
-      <c r="S124">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="T124">
-        <v>5</v>
-      </c>
-      <c r="U124">
-        <v>999</v>
-      </c>
-      <c r="V124">
-        <v>0</v>
-      </c>
-      <c r="W124" t="s">
-        <v>158</v>
-      </c>
-      <c r="X124" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y124" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z124" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA124">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AB124">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AC124" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AD124" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AE124" s="24">
-        <v>123</v>
-      </c>
-      <c r="AF124" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG124" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH124" s="23">
-        <v>0.69179999999999997</v>
-      </c>
-      <c r="AI124" s="23">
-        <v>0.69179999999999997</v>
-      </c>
-      <c r="AL124" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="AM124" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN124" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO124" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP124">
-        <v>0</v>
-      </c>
-      <c r="AQ124" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR124" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS124" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:45">
-      <c r="AC125" s="3"/>
-      <c r="AD125" s="5"/>
-      <c r="AE125" s="24"/>
-      <c r="AH125" s="23"/>
-      <c r="AI125" s="23"/>
-      <c r="AL125" s="29"/>
-      <c r="AS125" s="22"/>
-    </row>
-    <row r="126" spans="1:45">
-      <c r="A126" t="s">
-        <v>208</v>
-      </c>
-      <c r="B126" t="s">
-        <v>102</v>
-      </c>
-      <c r="C126" t="b">
-        <v>0</v>
-      </c>
-      <c r="D126" t="b">
-        <v>0</v>
-      </c>
-      <c r="E126" t="s">
-        <v>132</v>
-      </c>
-      <c r="F126" t="b">
-        <v>0</v>
-      </c>
-      <c r="G126" t="s">
-        <v>144</v>
-      </c>
-      <c r="H126" t="b">
-        <v>1</v>
-      </c>
-      <c r="I126" t="b">
-        <v>1</v>
-      </c>
-      <c r="J126" t="b">
-        <v>1</v>
-      </c>
-      <c r="K126" t="b">
-        <v>1</v>
-      </c>
-      <c r="L126">
-        <v>0.02</v>
-      </c>
-      <c r="M126">
-        <v>0.01</v>
-      </c>
-      <c r="N126">
-        <v>0.05</v>
-      </c>
-      <c r="O126">
-        <v>1.22</v>
-      </c>
-      <c r="P126" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q126" t="s">
-        <v>35</v>
-      </c>
-      <c r="R126">
-        <v>20</v>
-      </c>
-      <c r="S126">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="T126">
-        <v>5</v>
-      </c>
-      <c r="U126">
-        <v>999</v>
-      </c>
-      <c r="V126">
-        <v>0</v>
-      </c>
-      <c r="W126" t="s">
-        <v>158</v>
-      </c>
-      <c r="X126" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y126" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z126" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA126">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AB126">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AC126" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AD126" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AE126" s="24">
-        <v>123</v>
-      </c>
-      <c r="AF126" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG126" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH126" s="23">
-        <v>0.6976</v>
-      </c>
-      <c r="AI126" s="23">
-        <v>0.6976</v>
-      </c>
-      <c r="AL126" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="AM126" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN126" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO126" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP126">
-        <v>0</v>
-      </c>
-      <c r="AQ126" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR126" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS126" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:45">
-      <c r="A127" t="s">
-        <v>209</v>
-      </c>
-      <c r="B127" t="s">
-        <v>109</v>
-      </c>
-      <c r="C127" t="b">
-        <v>0</v>
-      </c>
-      <c r="D127" t="b">
-        <v>0</v>
-      </c>
-      <c r="E127" t="s">
-        <v>132</v>
-      </c>
-      <c r="F127" t="b">
-        <v>0</v>
-      </c>
-      <c r="G127" t="s">
-        <v>144</v>
-      </c>
-      <c r="H127" t="b">
-        <v>1</v>
-      </c>
-      <c r="I127" t="b">
-        <v>0</v>
-      </c>
-      <c r="J127" t="b">
-        <v>1</v>
-      </c>
-      <c r="K127" t="b">
-        <v>1</v>
-      </c>
-      <c r="L127">
-        <v>0.02</v>
-      </c>
-      <c r="M127">
-        <v>0.01</v>
-      </c>
-      <c r="N127">
-        <v>0.05</v>
-      </c>
-      <c r="O127">
-        <v>1.22</v>
-      </c>
-      <c r="P127" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q127" t="s">
-        <v>35</v>
-      </c>
-      <c r="R127">
-        <v>20</v>
-      </c>
-      <c r="S127">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="T127">
-        <v>5</v>
-      </c>
-      <c r="U127">
-        <v>999</v>
-      </c>
-      <c r="V127">
-        <v>0</v>
-      </c>
-      <c r="W127" t="s">
-        <v>158</v>
-      </c>
-      <c r="X127" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y127" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z127" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA127">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AB127">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AC127" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AD127" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AE127" s="24">
-        <v>123</v>
-      </c>
-      <c r="AF127" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG127" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH127" s="23">
-        <v>0.6976</v>
-      </c>
-      <c r="AI127" s="23">
-        <v>0.6976</v>
-      </c>
-      <c r="AL127" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="AM127" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN127" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO127" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP127">
-        <v>0</v>
-      </c>
-      <c r="AQ127" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR127" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS127" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:45">
-      <c r="AC128" s="3"/>
-      <c r="AD128" s="5"/>
-      <c r="AE128" s="24"/>
-      <c r="AH128" s="23"/>
-      <c r="AI128" s="23"/>
-      <c r="AL128" s="29"/>
-      <c r="AS128" s="22"/>
-    </row>
-    <row r="129" spans="1:45">
-      <c r="A129" t="s">
-        <v>210</v>
-      </c>
-      <c r="B129" t="s">
-        <v>102</v>
-      </c>
-      <c r="C129" t="b">
-        <v>0</v>
-      </c>
-      <c r="D129" t="b">
-        <v>0</v>
-      </c>
-      <c r="E129" t="s">
-        <v>184</v>
-      </c>
-      <c r="F129" t="b">
-        <v>0</v>
-      </c>
-      <c r="G129" t="s">
-        <v>159</v>
-      </c>
-      <c r="H129" t="b">
-        <v>1</v>
-      </c>
-      <c r="I129" t="b">
-        <v>1</v>
-      </c>
-      <c r="J129" t="b">
-        <v>1</v>
-      </c>
-      <c r="K129" t="b">
-        <v>1</v>
-      </c>
-      <c r="L129">
-        <v>0.02</v>
-      </c>
-      <c r="M129">
-        <v>0.01</v>
-      </c>
-      <c r="N129">
-        <v>0.05</v>
-      </c>
-      <c r="O129">
-        <v>1.25</v>
-      </c>
-      <c r="P129" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q129" t="s">
-        <v>35</v>
-      </c>
-      <c r="R129">
-        <v>20</v>
-      </c>
-      <c r="S129">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="T129">
-        <v>5</v>
-      </c>
-      <c r="U129">
-        <v>999</v>
-      </c>
-      <c r="V129">
-        <v>0</v>
-      </c>
-      <c r="W129" t="s">
-        <v>158</v>
-      </c>
-      <c r="X129" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y129" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z129" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA129">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AB129">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AC129" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AD129" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AE129" s="24">
-        <v>123</v>
-      </c>
-      <c r="AF129" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG129" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH129" s="23">
-        <v>0.69179999999999997</v>
-      </c>
-      <c r="AI129" s="23">
-        <v>0.69179999999999997</v>
-      </c>
-      <c r="AL129" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="AM129" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN129" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO129" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP129">
-        <v>0</v>
-      </c>
-      <c r="AQ129" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR129" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS129" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:45">
-      <c r="A130" t="s">
-        <v>211</v>
-      </c>
-      <c r="B130" t="s">
-        <v>109</v>
-      </c>
-      <c r="C130" t="b">
-        <v>0</v>
-      </c>
-      <c r="D130" t="b">
-        <v>0</v>
-      </c>
-      <c r="E130" t="s">
-        <v>184</v>
-      </c>
-      <c r="F130" t="b">
-        <v>0</v>
-      </c>
-      <c r="G130" t="s">
-        <v>159</v>
-      </c>
-      <c r="H130" t="b">
-        <v>1</v>
-      </c>
-      <c r="I130" t="b">
-        <v>0</v>
-      </c>
-      <c r="J130" t="b">
-        <v>1</v>
-      </c>
-      <c r="K130" t="b">
-        <v>1</v>
-      </c>
-      <c r="L130">
-        <v>0.02</v>
-      </c>
-      <c r="M130">
-        <v>0.01</v>
-      </c>
-      <c r="N130">
-        <v>0.05</v>
-      </c>
-      <c r="O130">
-        <v>1.25</v>
-      </c>
-      <c r="P130" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q130" t="s">
-        <v>35</v>
-      </c>
-      <c r="R130">
-        <v>20</v>
-      </c>
-      <c r="S130">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="T130">
-        <v>5</v>
-      </c>
-      <c r="U130">
-        <v>999</v>
-      </c>
-      <c r="V130">
-        <v>0</v>
-      </c>
-      <c r="W130" t="s">
-        <v>158</v>
-      </c>
-      <c r="X130" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y130" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z130" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA130">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AB130">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AC130" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AD130" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AE130" s="24">
-        <v>123</v>
-      </c>
-      <c r="AF130" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG130" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH130" s="23">
-        <v>0.69179999999999997</v>
-      </c>
-      <c r="AI130" s="23">
-        <v>0.69179999999999997</v>
-      </c>
-      <c r="AL130" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="AM130" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN130" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO130" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP130">
-        <v>0</v>
-      </c>
-      <c r="AQ130" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR130" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS130" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:45">
-      <c r="AC131" s="3"/>
-      <c r="AD131" s="5"/>
-      <c r="AE131" s="24"/>
-      <c r="AH131" s="23"/>
-      <c r="AI131" s="23"/>
-      <c r="AL131" s="29"/>
-      <c r="AS131" s="22"/>
-    </row>
-    <row r="132" spans="1:45">
-      <c r="AC132" s="3"/>
-      <c r="AD132" s="5"/>
-      <c r="AE132" s="24"/>
-      <c r="AH132" s="23"/>
-      <c r="AI132" s="23"/>
-      <c r="AL132" s="29"/>
-      <c r="AS132" s="22"/>
+    <row r="75" spans="29:45">
+      <c r="AC75" s="3"/>
+      <c r="AD75" s="5"/>
+      <c r="AE75" s="24"/>
+      <c r="AH75" s="23"/>
+      <c r="AI75" s="23"/>
+      <c r="AL75" s="29"/>
+      <c r="AS75" s="22"/>
+    </row>
+    <row r="76" spans="29:45">
+      <c r="AC76" s="3"/>
+      <c r="AD76" s="5"/>
+      <c r="AE76" s="24"/>
+      <c r="AH76" s="23"/>
+      <c r="AI76" s="23"/>
+      <c r="AL76" s="29"/>
+      <c r="AS76" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN112:AO113 AN115:AO117 AN63:AO64 AN105:AO110 AN66:AO68 AN70:AO71 AN73:AO74 AN102:AO103 AN76:AO77 C96:C97 AN96:AO100 AN58:AO61 C58:C77 C120:C132 AN120:AO132 C99:C117 AN31:AO31 C31 C6:C29 AN6:AO10 AN25:AO29 AN12:AO13 AN15:AO17 AN19:AO20 AN22:AO23 AN47:AO48 AN50:AO51 AN40:AO45 AN37:AO38 AN33:AO35 C34:C51" xr:uid="{1240F49A-5091-456D-B77A-0673AD56E758}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN31:AO31 C31 C6:C29 AN6:AO10 AN25:AO29 AN12:AO13 AN15:AO17 AN19:AO20 AN22:AO23 AN47:AO48 AN50:AO51 AN40:AO45 AN37:AO38 AN33:AO35 C34:C51 AN75:AO76 C75:C76" xr:uid="{1240F49A-5091-456D-B77A-0673AD56E758}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y112:Y113 Y76:Y77 Y115:Y117 Y63:Y64 Y66:Y68 Y70:Y71 Y73:Y74 Y96:Y100 Y105:Y110 Y102:Y103 Y58:Y61 Y120:Y132 Y31 Y6:Y10 Y25:Y29 Y12:Y13 Y15:Y17 Y19:Y20 Y22:Y23 Y47:Y48 Y50:Y51 Y33:Y35 Y40:Y45 Y37:Y38" xr:uid="{8909875A-86FC-4594-BBAF-A364A5851F3C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y31 Y6:Y10 Y25:Y29 Y12:Y13 Y15:Y17 Y19:Y20 Y22:Y23 Y47:Y48 Y50:Y51 Y33:Y35 Y40:Y45 Y37:Y38 Y75:Y76" xr:uid="{8909875A-86FC-4594-BBAF-A364A5851F3C}">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D112:D113 D76:D77 D115:D117 D63:D64 D66:D68 D70:D71 D73:D74 D96:D100 D105:D110 D102:D103 D58:D61 D120:D132 D31 D6:D10 D25:D29 D12:D13 D15:D17 D19:D20 D22:D23 D47:D48 D50:D51 D33:D35 D40:D45 D37:D38" xr:uid="{EC327A6A-3FD9-4228-86E6-BF4DFCBDFAEB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D31 D6:D10 D25:D29 D12:D13 D15:D17 D19:D20 D22:D23 D47:D48 D50:D51 D33:D35 D40:D45 D37:D38 D75:D76" xr:uid="{EC327A6A-3FD9-4228-86E6-BF4DFCBDFAEB}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10271,10 +5715,10 @@
   <dimension ref="A3:R80"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomRight" activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10304,91 +5748,91 @@
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
       <c r="D3" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K3" s="25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L3" s="25"/>
       <c r="M3" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O3" s="19"/>
       <c r="P3" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q3" s="15"/>
       <c r="R3" s="15"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1">
       <c r="A4" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>25</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J4" s="28" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="L4" s="26" t="s">
-        <v>82</v>
-      </c>
       <c r="M4" s="26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P4" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q4" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="R4" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -10396,22 +5840,22 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="34" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6">
         <v>2.75E-2</v>
@@ -10449,22 +5893,22 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="34" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G7">
         <v>2.75E-2</v>
@@ -10502,22 +5946,22 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="34" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G8">
         <v>2.75E-2</v>
@@ -10559,22 +6003,22 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="34" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G10">
         <v>2.75E-2</v>
@@ -10615,22 +6059,22 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="34" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="B11" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G11">
         <v>2.75E-2</v>
@@ -10671,22 +6115,22 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="34" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G12">
         <v>2.75E-2</v>
@@ -10730,22 +6174,22 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="34" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="B14" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G14">
         <v>2.75E-2</v>
@@ -10786,22 +6230,22 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="34" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="B15" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G15">
         <v>2.75E-2</v>
@@ -10842,22 +6286,22 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="34" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="B16" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E16" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G16">
         <v>2.75E-2</v>
@@ -10914,22 +6358,22 @@
     </row>
     <row r="21" spans="1:18" ht="13.5" customHeight="1">
       <c r="A21" s="34" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="B21" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E21" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G21">
         <v>2.75E-2</v>
@@ -10967,22 +6411,22 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="34" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="B22" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E22" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="F22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G22">
         <v>2.75E-2</v>
@@ -11020,22 +6464,22 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="34" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="B23" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E23" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="F23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G23">
         <v>2.75E-2</v>
@@ -11077,22 +6521,22 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="34" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="B25" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E25" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="F25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G25">
         <v>2.75E-2</v>
@@ -11133,22 +6577,22 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="34" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="B26" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E26" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G26">
         <v>2.75E-2</v>
@@ -11189,22 +6633,22 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="34" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="B27" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E27" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="F27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G27">
         <v>2.75E-2</v>
@@ -11249,22 +6693,22 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="34" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="B29" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E29" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="F29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G29">
         <v>2.75E-2</v>
@@ -11305,22 +6749,22 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="34" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="B30" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="C30" t="b">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E30" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="F30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G30">
         <v>2.75E-2</v>
@@ -11361,22 +6805,22 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="34" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="B31" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E31" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="F31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G31">
         <v>2.75E-2</v>
@@ -11417,22 +6861,22 @@
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="34" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B46" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E46" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G46">
         <v>2.75E-2</v>
@@ -11470,22 +6914,22 @@
     </row>
     <row r="47" spans="1:18">
       <c r="A47" s="34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B47" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E47" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G47">
         <v>2.75E-2</v>
@@ -11523,22 +6967,22 @@
     </row>
     <row r="48" spans="1:18">
       <c r="A48" s="34" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B48" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E48" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G48">
         <v>2.75E-2</v>
@@ -11580,22 +7024,22 @@
     </row>
     <row r="50" spans="1:18">
       <c r="A50" s="34" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B50" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E50" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G50">
         <v>2.75E-2</v>
@@ -11636,22 +7080,22 @@
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="34" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B51" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E51" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G51">
         <v>2.75E-2</v>
@@ -11692,22 +7136,22 @@
     </row>
     <row r="52" spans="1:18">
       <c r="A52" s="34" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B52" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E52" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G52">
         <v>2.75E-2</v>
@@ -11751,22 +7195,22 @@
     </row>
     <row r="54" spans="1:18">
       <c r="A54" s="34" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B54" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E54" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G54">
         <v>2.75E-2</v>
@@ -11807,22 +7251,22 @@
     </row>
     <row r="55" spans="1:18">
       <c r="A55" s="34" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B55" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E55" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G55">
         <v>2.75E-2</v>
@@ -11863,22 +7307,22 @@
     </row>
     <row r="56" spans="1:18">
       <c r="A56" s="34" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B56" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E56" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G56">
         <v>2.75E-2</v>
@@ -11922,22 +7366,22 @@
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="34" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="B58" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E58" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G58">
         <v>2.75E-2</v>
@@ -11985,22 +7429,22 @@
     </row>
     <row r="61" spans="1:18" ht="13.5" customHeight="1">
       <c r="A61" s="34" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="B61" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E61" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="F61" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G61">
         <v>2.75E-2</v>
@@ -12038,22 +7482,22 @@
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="34" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="B62" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="C62" t="b">
         <v>0</v>
       </c>
       <c r="D62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E62" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="F62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G62">
         <v>2.75E-2</v>
@@ -12091,22 +7535,22 @@
     </row>
     <row r="63" spans="1:18">
       <c r="A63" s="34" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="B63" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E63" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="F63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G63">
         <v>2.75E-2</v>
@@ -12148,22 +7592,22 @@
     </row>
     <row r="65" spans="1:18">
       <c r="A65" s="34" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="B65" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="C65" t="b">
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E65" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="F65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G65">
         <v>2.75E-2</v>
@@ -12204,22 +7648,22 @@
     </row>
     <row r="66" spans="1:18">
       <c r="A66" s="34" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="B66" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="C66" t="b">
         <v>0</v>
       </c>
       <c r="D66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E66" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="F66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G66">
         <v>2.75E-2</v>
@@ -12260,22 +7704,22 @@
     </row>
     <row r="67" spans="1:18">
       <c r="A67" s="34" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="B67" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="C67" t="b">
         <v>0</v>
       </c>
       <c r="D67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E67" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="F67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G67">
         <v>2.75E-2</v>
@@ -12320,22 +7764,22 @@
     </row>
     <row r="69" spans="1:18">
       <c r="A69" s="34" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="B69" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E69" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="F69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G69">
         <v>2.75E-2</v>
@@ -12376,22 +7820,22 @@
     </row>
     <row r="70" spans="1:18">
       <c r="A70" s="34" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="B70" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="C70" t="b">
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E70" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="F70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G70">
         <v>2.75E-2</v>
@@ -12432,22 +7876,22 @@
     </row>
     <row r="71" spans="1:18">
       <c r="A71" s="34" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="B71" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E71" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="F71" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G71">
         <v>2.75E-2</v>
@@ -12492,22 +7936,22 @@
     </row>
     <row r="73" spans="1:18">
       <c r="A73" s="34" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="B73" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="C73" t="b">
         <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E73" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="F73" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G73">
         <v>2.75E-2</v>
@@ -12548,22 +7992,22 @@
     </row>
     <row r="76" spans="1:18">
       <c r="A76" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="B76" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="C76" t="b">
         <v>0</v>
       </c>
       <c r="D76" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E76" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F76" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G76">
         <v>2.75E-2</v>
@@ -12601,22 +8045,22 @@
     </row>
     <row r="77" spans="1:18">
       <c r="A77" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="B77" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="C77" t="b">
         <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E77" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="F77" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G77">
         <v>2.75E-2</v>
@@ -12654,22 +8098,22 @@
     </row>
     <row r="79" spans="1:18">
       <c r="A79" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="B79" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="C79" t="b">
         <v>0</v>
       </c>
       <c r="D79" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E79" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F79" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G79">
         <v>2.75E-2</v>
@@ -12710,22 +8154,22 @@
     </row>
     <row r="80" spans="1:18">
       <c r="A80" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="B80" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="C80" t="b">
         <v>0</v>
       </c>
       <c r="D80" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E80" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="F80" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G80">
         <v>2.75E-2</v>
@@ -12785,7 +8229,7 @@
   <dimension ref="A3:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12797,7 +8241,7 @@
   <sheetData>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -12809,22 +8253,22 @@
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12835,7 +8279,7 @@
         <v>50</v>
       </c>
       <c r="C4">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -12869,8 +8313,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12928,7 +8372,7 @@
         <v>0.03</v>
       </c>
       <c r="G2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -12953,7 +8397,7 @@
         <v>0.1</v>
       </c>
       <c r="G3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -12967,7 +8411,7 @@
         <v>0.12</v>
       </c>
       <c r="D4">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" si="0"/>
@@ -12978,12 +8422,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="4">
         <v>0.03</v>
@@ -13003,12 +8447,12 @@
         <v>0.03</v>
       </c>
       <c r="G5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" s="4">
         <v>0.11</v>
@@ -13027,12 +8471,12 @@
         <v>0.11</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" s="4">
         <v>-0.24</v>
@@ -13052,12 +8496,12 @@
         <v>-0.24</v>
       </c>
       <c r="G7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8" s="4">
         <v>0.12</v>
@@ -13077,12 +8521,12 @@
         <v>0.12</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B9" s="4">
         <v>0.12</v>
@@ -13102,12 +8546,12 @@
         <v>0.12</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10" s="4">
         <v>0.12</v>
@@ -13127,12 +8571,12 @@
         <v>0.12</v>
       </c>
       <c r="G10" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" s="4">
         <v>7.0000000000000007E-2</v>
@@ -13141,7 +8585,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="0"/>
@@ -13152,7 +8596,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G11" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -13167,8 +8611,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A2:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13184,362 +8628,362 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="F4" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="G4" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="C6" s="33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="F7" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="G7" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="F8" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="G8" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" t="s">
+        <v>236</v>
+      </c>
+      <c r="F10" t="s">
         <v>243</v>
       </c>
-      <c r="B10" t="b">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" t="s">
-        <v>275</v>
-      </c>
-      <c r="F10" t="s">
-        <v>282</v>
-      </c>
       <c r="G10" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="F11" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="G11" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E13" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="F13" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="G13" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E14" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="F14" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="G14" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="C16" s="33" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E17" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="F17" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="G17" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="F18" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="G18" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E20" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="F20" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="G20" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E21" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="F21" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="G21" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E23" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="F23" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="G23" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="B24" t="b">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E24" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="F24" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="G24" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="C28" s="33" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="B29" t="b">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="D29" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="E29" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="F29" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="G29" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -13547,316 +8991,316 @@
     </row>
     <row r="31" spans="1:7">
       <c r="C31" s="33" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="B32" t="b">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D32" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="E32" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="F32" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="G32" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="B33" t="b">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D33" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="E33" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="F33" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="G33" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="B35" t="b">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D35" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="E35" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="F35" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="G35" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="B36" t="b">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D36" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="E36" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="F36" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="G36" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="B38" t="b">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D38" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="E38" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="F38" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="G38" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="B39" t="b">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D39" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="E39" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="F39" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="G39" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="C41" s="33" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="B42" t="b">
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D42" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="E42" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="F42" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="G42" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="B43" t="b">
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D43" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="E43" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="F43" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="G43" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="B45" t="b">
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D45" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="E45" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="F45" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="G45" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="B46" t="b">
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D46" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="E46" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="F46" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="G46" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="B48" t="b">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D48" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="E48" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="F48" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="G48" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="B49" t="b">
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D49" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="E49" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="F49" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="G49" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="C52" s="33" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="B53" t="b">
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="D53" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="E53" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="F53" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="G53" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -13864,288 +9308,288 @@
     </row>
     <row r="55" spans="1:7">
       <c r="C55" s="33" t="s">
-        <v>299</v>
+        <v>260</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="B56" t="b">
         <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D56" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="E56" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="F56" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="G56" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="B57" t="b">
         <v>0</v>
       </c>
       <c r="C57" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D57" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="E57" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="F57" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="G57" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="B59" t="b">
         <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D59" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="E59" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="F59" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="G59" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="B60" t="b">
         <v>0</v>
       </c>
       <c r="C60" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D60" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="E60" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="F60" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="G60" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c r="B62" t="b">
         <v>0</v>
       </c>
       <c r="C62" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D62" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="E62" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="F62" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="G62" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="B63" t="b">
         <v>0</v>
       </c>
       <c r="C63" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D63" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="E63" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="F63" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="G63" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="C65" s="33" t="s">
-        <v>300</v>
+        <v>261</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="B66" t="b">
         <v>0</v>
       </c>
       <c r="C66" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D66" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="E66" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="F66" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="G66" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="B67" t="b">
         <v>0</v>
       </c>
       <c r="C67" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D67" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="E67" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="F67" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="G67" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="B69" t="b">
         <v>0</v>
       </c>
       <c r="C69" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D69" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="E69" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="F69" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="G69" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="B70" t="b">
         <v>0</v>
       </c>
       <c r="C70" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D70" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="E70" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="F70" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="G70" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>296</v>
+        <v>257</v>
       </c>
       <c r="B72" t="b">
         <v>0</v>
       </c>
       <c r="C72" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D72" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="E72" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="F72" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="G72" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>297</v>
+        <v>258</v>
       </c>
       <c r="B73" t="b">
         <v>0</v>
       </c>
       <c r="C73" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D73" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="E73" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="F73" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="G73" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -14176,13 +9620,13 @@
   <sheetData>
     <row r="1" spans="2:5">
       <c r="C1" s="1" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>336</v>
+        <v>297</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>362</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="2:5">
@@ -14190,21 +9634,21 @@
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="37" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="1" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="C4" s="54">
         <v>3046096462</v>
@@ -14219,7 +9663,7 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>305</v>
+        <v>266</v>
       </c>
       <c r="C5" s="54">
         <v>1469549146</v>
@@ -14234,7 +9678,7 @@
     </row>
     <row r="6" spans="2:5">
       <c r="B6" t="s">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="C6" s="54">
         <v>23576532</v>
@@ -14249,7 +9693,7 @@
     </row>
     <row r="7" spans="2:5">
       <c r="B7" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="C7" s="54">
         <v>32354830</v>
@@ -14264,7 +9708,7 @@
     </row>
     <row r="8" spans="2:5">
       <c r="B8" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
       <c r="C8" s="54">
         <v>1520615954</v>
@@ -14284,7 +9728,7 @@
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="1" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
       <c r="C10" s="53">
         <f>SUM(C11:C12)</f>
@@ -14301,7 +9745,7 @@
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="36" t="s">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="C11" s="54">
         <v>231901380</v>
@@ -14316,7 +9760,7 @@
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="36" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="C12" s="54">
         <v>196021603</v>
@@ -14336,7 +9780,7 @@
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="1" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="C14" s="54">
         <v>2618173479</v>
@@ -14351,7 +9795,7 @@
     </row>
     <row r="15" spans="2:5">
       <c r="B15" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="C15" s="54">
         <v>1041626163</v>
@@ -14366,7 +9810,7 @@
     </row>
     <row r="16" spans="2:5">
       <c r="B16" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="C16" s="54">
         <v>23576532</v>
@@ -14381,7 +9825,7 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c r="C17" s="54">
         <v>32354830</v>
@@ -14396,7 +9840,7 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="C18" s="54">
         <v>1520615954</v>
@@ -14415,14 +9859,14 @@
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C20" s="52"/>
       <c r="E20" s="40"/>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
       <c r="C21" s="54">
         <v>1940359779</v>
@@ -14437,7 +9881,7 @@
     </row>
     <row r="22" spans="2:5">
       <c r="B22" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="C22" s="54">
         <v>1940359779</v>
@@ -14452,7 +9896,7 @@
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="39" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="C23" s="53">
         <f>C14-C22</f>
@@ -14469,7 +9913,7 @@
     </row>
     <row r="24" spans="2:5">
       <c r="B24" t="s">
-        <v>318</v>
+        <v>279</v>
       </c>
       <c r="C24" s="51">
         <f>C21/C14</f>
@@ -14486,7 +9930,7 @@
     </row>
     <row r="25" spans="2:5">
       <c r="B25" t="s">
-        <v>319</v>
+        <v>280</v>
       </c>
       <c r="C25" s="51">
         <f>C22/C14</f>
@@ -14510,21 +9954,21 @@
     </row>
     <row r="28" spans="2:5" ht="30" customHeight="1">
       <c r="B28" s="44" t="s">
-        <v>354</v>
+        <v>315</v>
       </c>
       <c r="C28" s="49" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
       <c r="D28" s="49" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
       <c r="E28" s="49" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" t="s">
-        <v>356</v>
+        <v>317</v>
       </c>
       <c r="C29" s="54">
         <v>386619790</v>
@@ -14545,7 +9989,7 @@
     </row>
     <row r="31" spans="2:5">
       <c r="B31" s="1" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
       <c r="C31" s="55">
         <v>0.17180000000000001</v>
@@ -14557,20 +10001,20 @@
     </row>
     <row r="32" spans="2:5">
       <c r="B32" t="s">
-        <v>327</v>
+        <v>288</v>
       </c>
       <c r="C32" s="56" t="s">
-        <v>359</v>
+        <v>320</v>
       </c>
       <c r="D32" s="41"/>
       <c r="E32" s="40"/>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" t="s">
-        <v>328</v>
+        <v>289</v>
       </c>
       <c r="C33" s="56" t="s">
-        <v>359</v>
+        <v>320</v>
       </c>
       <c r="D33" s="41"/>
       <c r="E33" s="40"/>
@@ -14582,7 +10026,7 @@
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="1" t="s">
-        <v>338</v>
+        <v>299</v>
       </c>
       <c r="C35" s="55">
         <v>0.14449999999999999</v>
@@ -14594,20 +10038,20 @@
     </row>
     <row r="36" spans="2:5">
       <c r="B36" t="s">
-        <v>327</v>
+        <v>288</v>
       </c>
       <c r="C36" s="56" t="s">
-        <v>359</v>
+        <v>320</v>
       </c>
       <c r="D36" s="41"/>
       <c r="E36" s="40"/>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" t="s">
-        <v>328</v>
+        <v>289</v>
       </c>
       <c r="C37" s="56" t="s">
-        <v>359</v>
+        <v>320</v>
       </c>
       <c r="D37" s="41"/>
       <c r="E37" s="40"/>
@@ -14619,7 +10063,7 @@
     </row>
     <row r="39" spans="2:5">
       <c r="B39" s="1" t="s">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="C39" s="51">
         <v>0.1608</v>
@@ -14634,7 +10078,7 @@
     </row>
     <row r="40" spans="2:5">
       <c r="B40" t="s">
-        <v>327</v>
+        <v>288</v>
       </c>
       <c r="C40" s="51">
         <v>7.0000000000000007E-2</v>
@@ -14649,7 +10093,7 @@
     </row>
     <row r="41" spans="2:5">
       <c r="B41" t="s">
-        <v>328</v>
+        <v>289</v>
       </c>
       <c r="C41" s="51">
         <v>9.0800000000000006E-2</v>
@@ -14669,7 +10113,7 @@
     </row>
     <row r="43" spans="2:5">
       <c r="B43" s="1" t="s">
-        <v>340</v>
+        <v>301</v>
       </c>
       <c r="C43" s="54">
         <v>62168462</v>
@@ -14684,7 +10128,7 @@
     </row>
     <row r="44" spans="2:5">
       <c r="B44" t="s">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="C44" s="54">
         <v>27063385</v>
@@ -14699,7 +10143,7 @@
     </row>
     <row r="45" spans="2:5">
       <c r="B45" t="s">
-        <v>331</v>
+        <v>292</v>
       </c>
       <c r="C45" s="54">
         <v>35105077</v>
@@ -14719,7 +10163,7 @@
     </row>
     <row r="47" spans="2:5">
       <c r="B47" s="1" t="s">
-        <v>332</v>
+        <v>293</v>
       </c>
       <c r="C47" s="53">
         <v>56666712</v>
@@ -14734,7 +10178,7 @@
     </row>
     <row r="48" spans="2:5">
       <c r="B48" s="1" t="s">
-        <v>360</v>
+        <v>321</v>
       </c>
       <c r="C48" s="51">
         <f>C47/C29</f>
@@ -14756,7 +10200,7 @@
     </row>
     <row r="50" spans="2:5">
       <c r="B50" t="s">
-        <v>342</v>
+        <v>303</v>
       </c>
       <c r="C50" s="54">
         <v>91771789</v>
@@ -14771,7 +10215,7 @@
     </row>
     <row r="51" spans="2:5">
       <c r="B51" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="C51" s="55">
         <f>C50/C29</f>
@@ -14792,21 +10236,21 @@
     </row>
     <row r="53" spans="2:5" ht="30">
       <c r="B53" s="44" t="s">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="C53" s="49" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="D53" s="49" t="s">
-        <v>363</v>
+        <v>324</v>
       </c>
       <c r="E53" s="49" t="s">
-        <v>363</v>
+        <v>324</v>
       </c>
     </row>
     <row r="54" spans="2:5">
       <c r="B54" s="1" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="C54" s="58">
         <v>356400733</v>
@@ -14821,7 +10265,7 @@
     </row>
     <row r="55" spans="2:5">
       <c r="B55" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="C55" s="58">
         <v>215637278</v>
@@ -14836,7 +10280,7 @@
     </row>
     <row r="56" spans="2:5">
       <c r="B56" t="s">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="C56" s="58">
         <v>140763455</v>
@@ -14851,7 +10295,7 @@
     </row>
     <row r="57" spans="2:5">
       <c r="B57" s="1" t="s">
-        <v>346</v>
+        <v>307</v>
       </c>
       <c r="C57" s="59">
         <v>0.156</v>
@@ -14866,7 +10310,7 @@
     </row>
     <row r="58" spans="2:5" hidden="1">
       <c r="B58" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="C58" s="57"/>
       <c r="D58" s="52"/>
@@ -14877,7 +10321,7 @@
     </row>
     <row r="59" spans="2:5" hidden="1">
       <c r="B59" t="s">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="C59" s="57"/>
       <c r="D59" s="52"/>
@@ -14888,7 +10332,7 @@
     </row>
     <row r="60" spans="2:5">
       <c r="B60" t="s">
-        <v>348</v>
+        <v>309</v>
       </c>
       <c r="C60" s="59">
         <v>6.8070000000000006E-2</v>
@@ -14903,7 +10347,7 @@
     </row>
     <row r="61" spans="2:5">
       <c r="B61" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
       <c r="C61" s="60">
         <v>8.8029999999999997E-2</v>
@@ -14918,7 +10362,7 @@
     </row>
     <row r="62" spans="2:5">
       <c r="B62" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="C62" s="48">
         <v>39847401</v>
@@ -14933,7 +10377,7 @@
     </row>
     <row r="63" spans="2:5">
       <c r="B63" s="1" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
       <c r="C63" s="46">
         <f>C62/C54</f>
@@ -14956,7 +10400,7 @@
     </row>
     <row r="65" spans="2:5">
       <c r="B65" s="37" t="s">
-        <v>357</v>
+        <v>318</v>
       </c>
       <c r="C65" s="47">
         <f>C61+C63</f>
@@ -14973,7 +10417,7 @@
     </row>
     <row r="66" spans="2:5">
       <c r="B66" s="37" t="s">
-        <v>358</v>
+        <v>319</v>
       </c>
       <c r="C66" s="47">
         <f>C63+C41</f>
@@ -15013,72 +10457,72 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="B2" s="38" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="37" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>305</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="36" t="s">
-        <v>351</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="36" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -15086,19 +10530,19 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>322</v>
+        <v>283</v>
       </c>
       <c r="B18" s="42"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="B19" s="43"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="B20" s="41"/>
     </row>
@@ -15107,86 +10551,86 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B22" s="41"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="39" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>318</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>319</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="37" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B30" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>327</v>
+        <v>288</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>328</v>
+        <v>289</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>329</v>
+        <v>290</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>330</v>
+        <v>291</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>331</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>332</v>
+        <v>293</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>334</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -15212,20 +10656,20 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" s="32" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -15236,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -15247,7 +10691,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -15258,7 +10702,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
